--- a/Linux/DeviceDrivers/Document(important)/6.usb.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/6.usb.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="usb相关结构体" sheetId="1" r:id="rId1"/>
-    <sheet name="hub探测逻辑" sheetId="2" r:id="rId2"/>
+    <sheet name="usb初始化" sheetId="2" r:id="rId2"/>
     <sheet name="taurus开机log" sheetId="3" r:id="rId3"/>
+    <sheet name="taurus配置" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="802">
   <si>
     <t>// include/linux/usb.h</t>
   </si>
@@ -102,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drivers/usb/core/hub.c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hub_wq = alloc_workqueue("usb_hub_wq", WQ_FREEZABLE, 0);</t>
   </si>
   <si>
@@ -121,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ehci驱动最终会调用hub_probe()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usb_fill_int_urb()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>udev = usb_alloc_dev(hdev, hdev-&gt;bus, port1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>// include/linux/usb/hcd.h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,1535 +585,1988 @@
     <t>[    1.783248] SCSI subsystem initialized</t>
   </si>
   <si>
+    <t>[    1.784128] 2000000.aips-bus:usbphy_nop2 supply vcc not found, using dummy regulator</t>
+  </si>
+  <si>
+    <t>[    1.784751] imx-i2c 21a0000.i2c: &lt;i2c_imx_probe&gt;</t>
+  </si>
+  <si>
+    <t>[    1.785472] i2c i2c-0: IMX I2C adapter registered</t>
+  </si>
+  <si>
+    <t>[    1.785492] i2c i2c-0: can't use DMA</t>
+  </si>
+  <si>
+    <t>[    1.785666] imx-i2c 21a4000.i2c: &lt;i2c_imx_probe&gt;</t>
+  </si>
+  <si>
+    <t>[    1.785913] i2c i2c-1: IMX I2C adapter registered</t>
+  </si>
+  <si>
+    <t>[    1.785931] i2c i2c-1: can't use DMA</t>
+  </si>
+  <si>
+    <t>[    1.786092] imx-i2c 21a8000.i2c: &lt;i2c_imx_probe&gt;</t>
+  </si>
+  <si>
+    <t>[    1.786631] i2c i2c-2: IMX I2C adapter registered</t>
+  </si>
+  <si>
+    <t>[    1.786649] i2c i2c-2: can't use DMA</t>
+  </si>
+  <si>
+    <t>[    1.786895] imx-i2c 21f8000.i2c: &lt;i2c_imx_probe&gt;</t>
+  </si>
+  <si>
+    <t>[    1.787373] i2c i2c-3: IMX I2C adapter registered</t>
+  </si>
+  <si>
+    <t>[    1.787389] i2c i2c-3: can't use DMA</t>
+  </si>
+  <si>
+    <t>[    1.787510] Linux video capture interface: v2.00</t>
+  </si>
+  <si>
+    <t>[    1.806925] imx-ipuv3 2400000.ipu: IPU DMFC NORMAL mode: 1(0~1), 5B(4,5), 5F(6,7)</t>
+  </si>
+  <si>
+    <t>[    1.807709] *** ipu_iauto_alloc_init: ipu_iauto_alloc_zone phys=0x7A600000</t>
+  </si>
+  <si>
+    <t>[    1.809460] cfg80211: World regulatory domain updated:</t>
+  </si>
+  <si>
+    <t>[    1.809472] cfg80211:  DFS Master region: unset</t>
+  </si>
+  <si>
+    <t>[    1.809481] cfg80211:   (start_freq - end_freq @ bandwidth), (max_antenna_gain, max_eirp), (dfs_cac_time)</t>
+  </si>
+  <si>
+    <t>[    1.809494] cfg80211:   (2402000 KHz - 2472000 KHz @ 40000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[    1.809506] cfg80211:   (2457000 KHz - 2482000 KHz @ 40000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[    1.809517] cfg80211:   (2474000 KHz - 2494000 KHz @ 20000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[    1.809526] cfg80211:   (5170000 KHz - 5250000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[    1.809535] cfg80211:   (5735000 KHz - 5835000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[    1.809545] cfg80211:   (57240000 KHz - 63720000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[    1.810044] Switched to clocksource mxc_timer1</t>
+  </si>
+  <si>
+    <t>[    1.816952] NET: Registered protocol family 2</t>
+  </si>
+  <si>
+    <t>[    1.817638] TCP established hash table entries: 8192 (order: 3, 32768 bytes)</t>
+  </si>
+  <si>
+    <t>[    1.817728] TCP bind hash table entries: 8192 (order: 4, 65536 bytes)</t>
+  </si>
+  <si>
+    <t>[    1.817866] TCP: Hash tables configured (established 8192 bind 8192)</t>
+  </si>
+  <si>
+    <t>[    1.818012] UDP hash table entries: 512 (order: 2, 16384 bytes)</t>
+  </si>
+  <si>
+    <t>[    1.818052] UDP-Lite hash table entries: 512 (order: 2, 16384 bytes)</t>
+  </si>
+  <si>
+    <t>[    1.818272] NET: Registered protocol family 1</t>
+  </si>
+  <si>
+    <t>[    1.818563] Unpacking initramfs...</t>
+  </si>
+  <si>
+    <t>[    1.845394] Freeing initrd memory: 336K (82800000 - 82854000)</t>
+  </si>
+  <si>
+    <t>[    1.845774] CPU PMU: Failed to parse /soc/pmu/interrupt-affinity[0]</t>
+  </si>
+  <si>
+    <t>[    1.845835] hw perfevents: enabled with armv7_cortex_a9 PMU driver, 7 counters available</t>
+  </si>
+  <si>
+    <t>[    1.847591] Bus freq driver module loaded</t>
+  </si>
+  <si>
+    <t>[    1.848633] futex hash table entries: 512 (order: 3, 32768 bytes)</t>
+  </si>
+  <si>
+    <t>[    1.857352] bounce: pool size: 64 pages</t>
+  </si>
+  <si>
+    <t>[    1.857377] io scheduler noop registered</t>
+  </si>
+  <si>
+    <t>[    1.857395] io scheduler deadline registered</t>
+  </si>
+  <si>
+    <t>[    1.857447] io scheduler cfq registered (default)</t>
+  </si>
+  <si>
+    <t>[    1.857479] LinuxCrashDump[Debug]: Init the linux crash dump driver</t>
+  </si>
+  <si>
+    <t>[    1.857801] LinuxCrashDump[Debug]: Probe the linux crash dump driver</t>
+  </si>
+  <si>
+    <t>[    1.857918] LinuxCrashDumpDebugModule: linux crash dump: phys_addr=0x7fc00000 size=0x300000 virt_addr=0xcdc00000</t>
+  </si>
+  <si>
+    <t>[    1.858396] imx-weim 21b8000.weim: Driver registered.</t>
+  </si>
+  <si>
+    <t>[    1.859725] pwm-backlight backlight@0: set enable gpio 0</t>
+  </si>
+  <si>
+    <t>[    1.859755] backlight@0 supply power not found, using dummy regulator</t>
+  </si>
+  <si>
+    <t>[    1.859960] pwm-backlight backlight@0: probe info: 1 0 0</t>
+  </si>
+  <si>
+    <t>[    1.860159] backlight@1 supply power not found, using dummy regulator</t>
+  </si>
+  <si>
+    <t>[    1.860363] pwm-backlight backlight@1: probe info: 0 0 80</t>
+  </si>
+  <si>
+    <t>[    1.862883] mxc_sdc_fb fb@0: registered mxc display driver ldb</t>
+  </si>
+  <si>
+    <t>[    1.890139] imx-ipuv3 2400000.ipu: IPU DMFC DP HIGH RESOLUTION: 1(0,1), 5B(2~5), 5F(6,7)</t>
+  </si>
+  <si>
+    <t>[    1.935659] imx-sdma 20ec000.sdma: no iram assigned, using external mem</t>
+  </si>
+  <si>
+    <t>[    1.937125] imx-sdma 20ec000.sdma: loaded firmware 3.3</t>
+  </si>
+  <si>
+    <t>[    1.939811] imx-sdma 20ec000.sdma: initialized</t>
+  </si>
+  <si>
+    <t>[    1.940921] 2020000.serial: ttymxc0 at MMIO 0x2020000 (irq = 22, base_baud = 5000000) is a IMX</t>
+  </si>
+  <si>
+    <t>[    2.840929] console [ttymxc0] enabled</t>
+  </si>
+  <si>
+    <t>[    2.845381] 21e8000.serial: ttymxc1 at MMIO 0x21e8000 (irq = 293, base_baud = 5000000) is a IMX</t>
+  </si>
+  <si>
+    <t>[    2.854687] 21ec000.serial: ttymxc2 at MMIO 0x21ec000 (irq = 294, base_baud = 5000000) is a IMX</t>
+  </si>
+  <si>
+    <t>[    2.865518] [drm] Initialized drm 1.1.0 20060810</t>
+  </si>
+  <si>
+    <t>[    2.870603] [drm] Initialized vivante 1.0.0 20120216 on minor 0</t>
+  </si>
+  <si>
+    <t>[    2.877368] tun: Universal TUN/TAP device driver, 1.6</t>
+  </si>
+  <si>
+    <t>[    2.882472] tun: (C) 1999-2004 Max Krasnyansky &lt;maxk@qualcomm.com&gt;</t>
+  </si>
+  <si>
+    <t>[    2.947934] 2184800.usbmisc supply vbus-wakeup not found, using dummy regulator</t>
+  </si>
+  <si>
+    <t>[    3.008199] ci_hdrc ci_hdrc.1: EHCI Host Controller</t>
+  </si>
+  <si>
+    <t>[    3.013153] ci_hdrc ci_hdrc.1: new USB bus registered, assigned bus number 2</t>
+  </si>
+  <si>
+    <t>[    3.040101] ci_hdrc ci_hdrc.1: USB 2.0 started, EHCI 1.00</t>
+  </si>
+  <si>
+    <t>[    3.046280] hub 2-0:1.0: USB hub found</t>
+  </si>
+  <si>
+    <t>[    3.050119] hub 2-0:1.0: 1 port detected</t>
+  </si>
+  <si>
+    <t>[    3.055543] input: automotive_tp as /devices/virtual/input/input0</t>
+  </si>
+  <si>
+    <t>[    3.062596] snvs_rtc 20cc000.snvs:snvs-rtc-lp: rtc core: registered 20cc000.snvs:snvs-r as rtc0</t>
+  </si>
+  <si>
+    <t>[    3.071489] i2c /dev entries driver</t>
+  </si>
+  <si>
+    <t>[    3.076487] ml86303_init use ML86286</t>
+  </si>
+  <si>
+    <t>[    3.080430] bsp: 0 0 0 130 128 0x4040</t>
+  </si>
+  <si>
+    <t>[    3.084447] camera category: pvm_on: 1 pvm_det: 0</t>
+  </si>
+  <si>
+    <t>[    3.089161] camera category: camera category is 1</t>
+  </si>
+  <si>
+    <t>[    3.094570] mxc_v4l2_output v4l2_out: V4L2 device registered as video16</t>
+  </si>
+  <si>
+    <t>[    3.101854] mxc_v4l2_output v4l2_out: V4L2 device registered as video17</t>
+  </si>
+  <si>
+    <t>[    3.109735] sdhci: Secure Digital Host Controller Interface driver</t>
+  </si>
+  <si>
+    <t>[    3.115966] sdhci: Copyright(c) Pierre Ossman</t>
+  </si>
+  <si>
+    <t>[    3.120358] sdhci-pltfm: SDHCI platform and OF driver helper</t>
+  </si>
+  <si>
+    <t>[    3.127300] /soc/aips-bus@02100000/usdhc@02198000: voltage-ranges unspecified</t>
+  </si>
+  <si>
+    <t>[    3.180172] mmc2: SDHCI controller on 2198000.usdhc [2198000.usdhc] using ADMA</t>
+  </si>
+  <si>
+    <t>[    3.199372] /soc/aips-bus@02100000/usdhc@0219c000: voltage-ranges unspecified</t>
+  </si>
+  <si>
+    <t>[    3.209270] sdhci-esdhc-imx 219c000.usdhc: No vmmc regulator found</t>
+  </si>
+  <si>
+    <t>[    3.215546] sdhci-esdhc-imx 219c000.usdhc: No vqmmc regulator found</t>
+  </si>
+  <si>
+    <t>[    3.235416] mmc2: queuing unknown CIS tuple 0x01 (3 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.250950] mmc2: queuing unknown CIS tuple 0x1a (5 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.260012] mmc2: queuing unknown CIS tuple 0x1b (8 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.265551] mmc3: SDHCI controller on 219c000.usdhc [219c000.usdhc] using ADMA</t>
+  </si>
+  <si>
+    <t>[    3.274052] mmc2: queuing unknown CIS tuple 0x14 (0 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.279988] mxc_vpu 2040000.vpu_fsl: VPU initialized</t>
+  </si>
+  <si>
+    <t>[    3.289036] *** vpu_iauto_alloc_init: vpu_iauto_alloc_zone phys=0x76E00000, virt=0xCE000000</t>
+  </si>
+  <si>
+    <t>[    3.298022] mxc_vdoa 21e4000.vdoa: i.MX Video Data Order Adapter(VDOA) driver probed</t>
+  </si>
+  <si>
+    <t>[    3.306166] hidraw: raw HID events driver (C) Jiri Kosina</t>
+  </si>
+  <si>
+    <t>[    3.311927] usbcore: registered new interface driver usbhid</t>
+  </si>
+  <si>
+    <t>[    3.317523] usbhid: USB HID core driver</t>
+  </si>
+  <si>
+    <t>[    3.321899] ashmem: initialized</t>
+  </si>
+  <si>
+    <t>[    3.325342] logger: created 256K log 'log_main'</t>
+  </si>
+  <si>
+    <t>[    3.330188] logger: created 256K log 'log_events'</t>
+  </si>
+  <si>
+    <t>[    3.335128] mmc2: queuing unknown CIS tuple 0x80 (1 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.335148] logger: created 256K log 'log_radio'</t>
+  </si>
+  <si>
+    <t>[    3.335296] logger: created 256K log 'log_system'</t>
+  </si>
+  <si>
+    <t>[    3.335429] logger: created 256K log 'log_iauto_system'</t>
+  </si>
+  <si>
+    <t>[    3.335567] logger: created 256K log 'log_iauto_events'</t>
+  </si>
+  <si>
+    <t>[    3.335697] logger: created 256K log 'log_iauto_radio'</t>
+  </si>
+  <si>
+    <t>[    3.335835] logger: created 256K log 'log_iauto_main'</t>
+  </si>
+  <si>
+    <t>[    3.355816] oprofile: using arm/armv7-ca9</t>
+  </si>
+  <si>
+    <t>[    3.356649] NET: Registered protocol family 10</t>
+  </si>
+  <si>
+    <t>[    3.357584] NET: Registered protocol family 17</t>
+  </si>
+  <si>
+    <t>[    3.383824] mmc2: queuing unknown CIS tuple 0x81 (1 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.389407] mmc2: queuing unknown CIS tuple 0x82 (1 bytes)</t>
+  </si>
+  <si>
+    <t>[    3.394970] mmc2: new high speed SDIO card at address 0001</t>
+  </si>
+  <si>
+    <t>[    3.525065] mmc3: MAN_BKOPS_EN bit is not set</t>
+  </si>
+  <si>
+    <t>[    3.548746] mmc3: new DDR MMC card at address 0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    3.553965] mmcblk3: mmc3:0001 032G34 29.1 GiB </t>
+  </si>
+  <si>
+    <t>[    3.558630] mmcblk3boot0: mmc3:0001 032G34 partition 1 8.00 MiB</t>
+  </si>
+  <si>
+    <t>[    3.564719] mmcblk3boot1: mmc3:0001 032G34 partition 2 8.00 MiB</t>
+  </si>
+  <si>
+    <t>[    3.570787] mmcblk3rpmb: mmc3:0001 032G34 partition 3 4.00 MiB</t>
+  </si>
+  <si>
+    <t>[    3.579691]  mmcblk3: p1 p2 p3 p4 &lt; p5 p6 p7 p8 &gt;</t>
+  </si>
+  <si>
+    <t>[    3.612286] atmel_mxt_ts 0-004b: the hardware version is 1s</t>
+  </si>
+  <si>
+    <t>[    3.620328] [TOUCH]:build:0xab config version:(hex)02 information block:(hex)a4 28 10 ab 20 34 22 checksum:(hex)29 37 ee Time:(hex)2018-08-27</t>
+  </si>
+  <si>
+    <t>[    3.634989] [TOUCH]:(func:mxt_interrupt)receive response in 5s, jiffies: 4294937520.</t>
+  </si>
+  <si>
+    <t>[    3.640450] input: Atmel_mXT540E_TouchPanel as /devices/soc0/soc/2100000.aips-bus/21a0000.i2c/i2c-0/0-004b/input/input1</t>
+  </si>
+  <si>
+    <t>[    3.640718] input: Atmel_mXT540E_Key as /devices/soc0/soc/2100000.aips-bus/21a0000.i2c/i2c-0/0-004b/input/input2</t>
+  </si>
+  <si>
+    <t>[    3.642768] snvs_rtc 20cc000.snvs:snvs-rtc-lp: setting system clock to 1970-01-01 00:00:00 UTC (0)</t>
+  </si>
+  <si>
+    <t>[    3.652606] wlan-en-regulator: disabling</t>
+  </si>
+  <si>
+    <t>[    3.677269] Freeing unused kernel memory: 240K (80670000 - 806ac000)</t>
+  </si>
+  <si>
+    <t>[    3.685181] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:0.</t>
+  </si>
+  <si>
+    <t>[    3.694585] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:255 status:0.</t>
+  </si>
+  <si>
+    <t>[    3.703301] (!!) init: starting 'bootani'</t>
+  </si>
+  <si>
+    <t>[    3.707716] (!!) init: starting 'early_rvc'</t>
+  </si>
+  <si>
+    <t>[    3.712427] (!!) init: starting 'ueventd'</t>
+  </si>
+  <si>
+    <t>[    3.713563] (!!) early_rvc: Build time: Feb 15 2019-12:16:15</t>
+  </si>
+  <si>
+    <t>[    3.714888] (II) early_rvc: camera_category is 0</t>
+  </si>
+  <si>
+    <t>[    3.714896] (II) early_rvc: last connect = 0 current_connect = 0</t>
+  </si>
+  <si>
+    <t>[    3.733523] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    3.739244] (!!) init:   + process(async ldramfs2-extract) started</t>
+  </si>
+  <si>
+    <t>[    3.745622] (!!) init: executing '/sbin/ldramfs2'</t>
+  </si>
+  <si>
+    <t>[    3.759544] (!!) ldramfs2: Stage2.1 begin</t>
+  </si>
+  <si>
+    <t>[    3.840146] usb 1-1: new high-speed USB device number 2 using ci_hdrc</t>
+  </si>
+  <si>
+    <t>[    3.883645] (!!) bootani: The first picture is shown</t>
+  </si>
+  <si>
+    <t>[    3.889316] (!!) bootani: Tcon status is soc show</t>
+  </si>
+  <si>
+    <t>[    3.909816] (!!) bkdata: getcontrol: ACTIVE, counter=6</t>
+  </si>
+  <si>
+    <t>[    3.915103] (!!) bkdata: getcontrol: ACTIVE, counter=7</t>
+  </si>
+  <si>
+    <t>[    3.920568] (!!) bkdata: getcontrol: ACTIVE, counter=5</t>
+  </si>
+  <si>
+    <t>[    3.927385] (!!) contrast: Set contrast: 128</t>
+  </si>
+  <si>
+    <t>[    3.936239] (!!) bkdata: getcontrol: ACTIVE, counter=6</t>
+  </si>
+  <si>
+    <t>[    3.941537] (!!) bkdata: getcontrol: ACTIVE, counter=7</t>
+  </si>
+  <si>
+    <t>[    3.947068] (!!) bkdata: getcontrol: ACTIVE, counter=5</t>
+  </si>
+  <si>
+    <t>[    3.958661] (!!) chroma: Set chroma 0xc0004040</t>
+  </si>
+  <si>
+    <t>[    3.963814] ml86303 3-0038: ml86303_set_chroma: 64 64 1 1</t>
+  </si>
+  <si>
+    <t>[    3.973098] (!!) bkdata: getcontrol: ACTIVE, counter=6</t>
+  </si>
+  <si>
+    <t>[    3.978670] (!!) bkdata: getcontrol: ACTIVE, counter=7</t>
+  </si>
+  <si>
+    <t>[    3.987662] (!!) bkdata: getcontrol: ACTIVE, counter=5</t>
+  </si>
+  <si>
+    <t>[    3.995394] (!!) backlight: Set backlight: 130</t>
+  </si>
+  <si>
+    <t>[    4.001604] (!!) bootani: cpio size shrinked(cur_pos=112465608 magic=?????? namesize=0 datasize=0), the boot animation image has some useless data!</t>
+  </si>
+  <si>
+    <t>[    4.024120] usb-storage 1-1:1.0: USB Mass Storage device detected</t>
+  </si>
+  <si>
+    <t>[    4.036333] scsi host0: usb-storage 1-1:1.0</t>
+  </si>
+  <si>
+    <t>[    4.261609] (!!) ldramfs2: Stage2.2 begin</t>
+  </si>
+  <si>
+    <t>[    4.340601] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.370798] (!!) init: executing '/sbin/linux_crash_dump'</t>
+  </si>
+  <si>
+    <t>[    4.381179] (II) linuxcrashdump: main() start Dump</t>
+  </si>
+  <si>
+    <t>[    4.387350] (II) linuxcrashdump: main() /proc/linux_crash_dump  not exist  do nothing ==</t>
+  </si>
+  <si>
+    <t>[    4.397388] (!!) init: executed '/sbin/linux_crash_dump' exited</t>
+  </si>
+  <si>
+    <t>[    4.405002] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.405268] (!!) init:   + process(async system-mount) started</t>
+  </si>
+  <si>
+    <t>[    4.418044] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.423775] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.429296] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.436605] (!!) init:   + process(async var-mount) started</t>
+  </si>
+  <si>
+    <t>[    4.453602] EXT4-fs (mmcblk3p1): mounted filesystem with ordered data mode. Opts: (null)</t>
+  </si>
+  <si>
+    <t>[    4.455533] loop: module loaded</t>
+  </si>
+  <si>
+    <t>[    4.455714] (!!) init: processing action 0xe3f98 (early-init)</t>
+  </si>
+  <si>
+    <t>[    4.455736] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.455791] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.474067] (!!) ldramfs2: grandson normal to exit</t>
+  </si>
+  <si>
+    <t>[    4.480593] (!!) ldramfs2: normal to exit</t>
+  </si>
+  <si>
+    <t>[    4.480690] (!!) ldramfs2: child normal to exit</t>
+  </si>
+  <si>
+    <t>[    4.481369] (!!) init: executed '/sbin/ldramfs2' exited</t>
+  </si>
+  <si>
+    <t>[    4.481594] (!!) init:   + process(async ldramfs2-extract) exited</t>
+  </si>
+  <si>
+    <t>[    4.481943] galcore: clk_get vg clock failed, disable vg!</t>
+  </si>
+  <si>
+    <t>[    4.482145] Galcore version 5.0.11.41671</t>
+  </si>
+  <si>
+    <t>[    4.515914] (!!) init:   + process(async system-mount) exited</t>
+  </si>
+  <si>
+    <t>[    4.550263] softdog: Software Watchdog Timer: 0.08 initialized. soft_noboot=0 soft_margin=60 sec soft_panic=0 (nowayout=1)</t>
+  </si>
+  <si>
+    <t>[    4.561450] (!!) init: processing action 0xe57d8 (wait_for_coldboot_done)</t>
+  </si>
+  <si>
+    <t>[    4.568324] (!!) init: processing action 0xe5820 (property_init)</t>
+  </si>
+  <si>
+    <t>[    4.574725] (!!) init: processing action 0xe5868 (keychord_init)</t>
+  </si>
+  <si>
+    <t>[    4.580806] (!!) init: processing action 0xe58b0 (console_init)</t>
+  </si>
+  <si>
+    <t>[    4.587035] (!!) init: processing action 0xe58f8 (set_init_properties)</t>
+  </si>
+  <si>
+    <t>[    4.593914] (!!) init: processing action 0xded80 (init)</t>
+  </si>
+  <si>
+    <t>[    4.600147] (EE) init: command 'mkdir /data 0771 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    4.608446] (EE) init: command 'write /dev/cpuctl/cpu.shares 1024', r=-22</t>
+  </si>
+  <si>
+    <t>[    4.616022] (EE) init: command 'write /dev/cpuctl/naviserver/cpu.rt_runtime_us 500000', r=-22</t>
+  </si>
+  <si>
+    <t>[    4.625095] (!!) init: processing action 0xe40c8 (init)</t>
+  </si>
+  <si>
+    <t>[    4.630513] (!!) init: processing action 0xe41a8 (fs)</t>
+  </si>
+  <si>
+    <t>[    4.635607] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.640901] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.646549] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.646978] (!!) init:   + process(async modules-core-load) started</t>
+  </si>
+  <si>
+    <t>[    4.667600] EXT4-fs (mmcblk3p2): recovery complete</t>
+  </si>
+  <si>
+    <t>[    4.673739] EXT4-fs (mmcblk3p2): mounted filesystem with ordered data mode. Opts: nodelalloc,journal_checksum</t>
+  </si>
+  <si>
+    <t>[    4.674825] drivers/misc/iram.c:iram_of_probe:278 mmap!</t>
+  </si>
+  <si>
+    <t>[    4.689454] (!!) init:   + process(async var-mount) exited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    4.690353] SCSI Media Changer driver v0.25 </t>
+  </si>
+  <si>
+    <t>[    4.724899] (!!) init:   + process(async modules-core-load) exited</t>
+  </si>
+  <si>
+    <t>[    4.758297] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.764514] (EE) init: command 'mkdir /var/property 0700 root root', r=-17</t>
+  </si>
+  <si>
+    <t>[    4.771447] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.776615] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.781720] (!!) init: processing action 0xe5940 (property_service_init)</t>
+  </si>
+  <si>
+    <t>[    4.793755] (!!) init: processing action 0xe5988 (signal_init)</t>
+  </si>
+  <si>
+    <t>[    4.799687] (!!) init: waitpid returned pid 64, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    4.805849] (!!) init: waitpid returned pid 74, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    4.812001] (!!) init: waitpid returned pid 75, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    4.818124] (!!) init: waitpid returned pid 82, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    4.824268] (!!) init: processing action 0xe59d0 (check_startup)</t>
+  </si>
+  <si>
+    <t>[    4.830306] (!!) init: processing action 0xdfb90 (post-fs)</t>
+  </si>
+  <si>
+    <t>[    4.836169] (EE) init: command 'mkdir /var/run 0777 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    4.843814] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    4.848999] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    4.854049] (!!) init: starting 'servicemanager'</t>
+  </si>
+  <si>
+    <t>[    4.859066] (!!) init: starting 'vold'</t>
+  </si>
+  <si>
+    <t>[    4.863358] (!!) init: starting 'crashreporter'</t>
+  </si>
+  <si>
+    <t>[    4.868312] (!!) init: starting 'logd'</t>
+  </si>
+  <si>
+    <t>[    4.874671] (!!) init: starting 'errd'</t>
+  </si>
+  <si>
+    <t>[    4.878947] (!!) init: starting 'sysd'</t>
+  </si>
+  <si>
+    <t>[    4.884675] (!!) init: starting 'wliautoserver'</t>
+  </si>
+  <si>
+    <t>[    4.889802] (!!) init: starting 'Opening'</t>
+  </si>
+  <si>
+    <t>[    4.905722] (!!) init: starting 'btd'</t>
+  </si>
+  <si>
+    <t>[    4.926623] (!!) init: starting 'VehicleServer'</t>
+  </si>
+  <si>
+    <t>[    4.951137] (!!) init: starting 'sysupdatemanager'</t>
+  </si>
+  <si>
+    <t>[    4.956681] (!!) init: processing action 0xe4450 (post-fs)</t>
+  </si>
+  <si>
+    <t>[    4.967494] (!!) init: processing action 0xe0fe8 (post-fs-data)</t>
+  </si>
+  <si>
+    <t>[    4.978238] (!!) init:   + process(async data-mount) started</t>
+  </si>
+  <si>
+    <t>[    4.986082] (!!) init: command(retry 10) 'check' begin</t>
+  </si>
+  <si>
+    <t>[    5.018078] random: sysd urandom read with 21 bits of entropy available</t>
+  </si>
+  <si>
+    <t>[    5.043800] scsi 0:0:0:0: Direct-Access     Generic  Flash Disk       8.07 PQ: 0 ANSI: 4</t>
+  </si>
+  <si>
+    <t>[    5.059607] sd 0:0:0:0: [sda] 15564800 512-byte logical blocks: (7.96 GB/7.42 GiB)</t>
+  </si>
+  <si>
+    <t>[    5.070184] sd 0:0:0:0: [sda] Write Protect is off</t>
+  </si>
+  <si>
+    <t>[    5.076197] sd 0:0:0:0: [sda] Write cache: disabled, read cache: enabled, doesn't support DPO or FUA</t>
+  </si>
+  <si>
+    <t>[    5.100899]  sda: sda1</t>
+  </si>
+  <si>
+    <t>[    5.116559] sd 0:0:0:0: [sda] Attached SCSI removable disk</t>
+  </si>
+  <si>
+    <t>[    5.151237] NHSysCtrl:Set Boot Media :1 to Share memory OK in SetBSPData()</t>
+  </si>
+  <si>
+    <t>[    5.159775] NHSysCtrl:Set BMode :0 to Share memory OK in SetBSPData()</t>
+  </si>
+  <si>
+    <t>[    5.166503] NHSysCtrl:Set Active Kernel :0 to Share memory OK in SetBSPData()</t>
+  </si>
+  <si>
+    <t>[    5.175174] NHSysCtrl:Set Active Ramdisk :0 to Share memory OK in SetBSPData()</t>
+  </si>
+  <si>
+    <t>[    5.182862] NHSysCtrl:start timer(NH_SYSCTRL_TIMER_WAIT_PARTITION_MOUNT)</t>
+  </si>
+  <si>
+    <t>[    5.260829] NHTestHandler:OnInitialize</t>
+  </si>
+  <si>
+    <t>[    5.286255] NHuCom:sysd start === EndConeChk() OK, Model1(ProjectSeries): 10, Model2(Region): 20, Model3(Product): 01[    5.294181] input: virtual keyboard as /devices/virtual/input/input3</t>
+  </si>
+  <si>
+    <t>[    5.294709] input: virtual wire keyboard as /devices/virtual/input/input4</t>
+  </si>
+  <si>
+    <t>[    5.295201] input: virtual remocon keyboard as /devices/virtual/input/input5</t>
+  </si>
+  <si>
+    <t>[    5.305922] NHTestHandler:OnStart</t>
+  </si>
+  <si>
+    <t>[    5.320889] NHTestHandler:OnRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.320890] </t>
+  </si>
+  <si>
+    <t>[    5.325656] NHuCom:BootStatus: 04, DVDType: 00, TunerType: 10, DTVType: 00, AUXType: 01, TmcRticType: 00</t>
+  </si>
+  <si>
+    <t>[    5.335327] NHuCom:uComProjNo: 10, uComCheckSum: 0000, MiconBootInfo: 00, AbnormalStaus: 00[    5.340325] NHSysCtrl:SetTouchKeyBacklightBrightness(200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.349016] </t>
+  </si>
+  <si>
+    <t>[    5.350790] NHSysCtrl:StartCom(bResult:1, dwNaviID:102001, dwBootStatus:80)</t>
+  </si>
+  <si>
+    <t>[    5.357851] NHSysCtrl:[StartCom] set system time from micon 2016/01/01 08:44:17</t>
+  </si>
+  <si>
+    <t>[    5.365842] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:8.</t>
+  </si>
+  <si>
+    <t>[    5.375033] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:255 status:8.</t>
+  </si>
+  <si>
+    <t>[    5.393417] NHuCom:recieve sys uCom version: 30 31 2e 31 38[    5.393872] NHSysCtrl:NHSysCtrlMdlMain::StartCom() -- &gt; CheckStartSeq(4)</t>
+  </si>
+  <si>
+    <t>[    5.393909] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0xb,m_dwMdlMainMode:0x2</t>
+  </si>
+  <si>
+    <t>[    5.393992] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0xb</t>
+  </si>
+  <si>
+    <t>[    5.395940] NHSysCtrl:NHSysCtrlMdlMain::SetPathEnd(VOID) ---- CheckStartSeq(4)</t>
+  </si>
+  <si>
+    <t>[    5.395976] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0x8b,m_dwMdlMainMode:0x2</t>
+  </si>
+  <si>
+    <t>[    5.396051] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x8b</t>
+  </si>
+  <si>
+    <t>[    5.399483] NHSysCtrl:SetProductInfoEnd ==&gt; CheckStartSeq(4)</t>
+  </si>
+  <si>
+    <t>[    5.399519] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0x9b,m_dwMdlMainMode:0x2</t>
+  </si>
+  <si>
+    <t>[    5.399597] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x9b</t>
+  </si>
+  <si>
+    <t>[    5.399930] NHSysCtrl:SetInfoFixedDiskEnd ==&gt; CheckStartSeq(4)</t>
+  </si>
+  <si>
+    <t>[    5.399963] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0x19b,m_dwMdlMainMode:0x2</t>
+  </si>
+  <si>
+    <t>[    5.400085] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x19b</t>
+  </si>
+  <si>
+    <t>[    5.400124] NHSysCtrl:CheckStartSeq --&gt;first --&gt;CheckUpdateKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB)</t>
+  </si>
+  <si>
+    <t>[    5.400956] NHSysCtrl:CheckStartSeq --&gt;first --&gt;CheckUpdateKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.401729] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckUpdateKey(NH_SYSCTRL_CKKEY_MEDIA_ID_SDCARD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.402744] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckTestModeKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB) </t>
+  </si>
+  <si>
+    <t>[    5.402831] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.402988] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckTestModeKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB2) </t>
+  </si>
+  <si>
+    <t>[    5.403059] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.403203] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckTestModeKey(NH_SYSCTRL_CKKEY_MEDIA_ID_SDCARD) </t>
+  </si>
+  <si>
+    <t>[    5.403264] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
+  </si>
+  <si>
+    <t>[    5.403402] NHSysCtrl:Check TestMode.key in sdcard failed</t>
+  </si>
+  <si>
+    <t>[    5.542817] EXT4-fs (mmcblk3p3): recovery complete</t>
+  </si>
+  <si>
+    <t>[    5.547155] EXT4-fs (mmcblk3p3): mounted filesystem with ordered data mode. Opts: nodelalloc,journal_checksum</t>
+  </si>
+  <si>
+    <t>[    5.564692] EXT4-fs (mmcblk3p5): mounted filesystem with ordered data mode. Opts: (null)</t>
+  </si>
+  <si>
+    <t>[    5.571716] EXT4-fs (mmcblk3p6): mounted filesystem with ordered data mode. Opts: (null)</t>
+  </si>
+  <si>
+    <t>[    5.584930] EXT4-fs (mmcblk3p7): recovery complete</t>
+  </si>
+  <si>
+    <t>[    5.585123] EXT4-fs (mmcblk3p7): mounted filesystem with ordered data mode. Opts: nodelalloc,journal_checksum</t>
+  </si>
+  <si>
+    <t>[    5.585505] (!!) init:   + process(async data-mount) exited</t>
+  </si>
+  <si>
+    <t>[    5.585933] (!!) init: waitpid returned pid 103, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    5.585982] (!!) init: command(retry 10) 'check' r=0</t>
+  </si>
+  <si>
+    <t>[    5.586745] (EE) init: command 'mkdir /data/dontpanic', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.587897] (EE) init: command 'mkdir /data/misc 01771 system misc', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.588368] (EE) init: command 'mkdir /data/misc/bluetoothd 0770 bluetooth bluetooth', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.588409] (EE) init: command 'mkdir /data/misc/bluetooth 0770 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.588443] (EE) init: command 'mkdir /data/misc/keystore 0700 keystore keystore', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.588480] (EE) init: command 'mkdir /data/misc/vpn 0770 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.588513] (EE) init: command 'mkdir /data/misc/systemkeys 0700 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.588910] (EE) init: command 'mkdir /data/misc/vpn/profiles 0770 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.589454] (EE) init: command 'chmod 0775 /system/etc/dhcpcd/dhcpcd-run-hooks', r=-30</t>
+  </si>
+  <si>
+    <t>[    5.589501] (EE) init: command 'mkdir /data/local 0771 shell shell', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.589868] (EE) init: command 'mkdir /data/local/tmp 0771 shell shell', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.589908] (EE) init: command 'mkdir /data/data 0771 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.589946] (EE) init: command 'mkdir /data/app 0771 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.589975] (EE) init: command 'chown root root /data/lost+found', r=-2</t>
+  </si>
+  <si>
+    <t>[    5.589991] (EE) init: command 'chmod 0770 /data/lost+found', r=-2</t>
+  </si>
+  <si>
+    <t>[    5.590104] (EE) init: command 'mkdir /data/apps 0751 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.590149] (EE) init: command 'mkdir /data/database 0751 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.591096] (EE) init: command 'mkdir /data/user 0751 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.591123] (!!) init: processing action 0xe4538 (early-boot)</t>
+  </si>
+  <si>
+    <t>[    5.592094] (!!) init: processing action 0xe1418 (boot)</t>
+  </si>
+  <si>
+    <t>[    5.592340] (EE) init: command 'mkdir /data/system 0775 system system', r=-17</t>
+  </si>
+  <si>
+    <t>[    5.592442] (!!) init: starting 'packagemanager'</t>
+  </si>
+  <si>
+    <t>[    5.592792] (!!) init: starting 'AppServer'</t>
+  </si>
+  <si>
+    <t>[    5.593751] (!!) init: starting 'SystemServer'</t>
+  </si>
+  <si>
+    <t>[    5.594511] (!!) init: starting 'CameraServer'</t>
+  </si>
+  <si>
+    <t>[    5.595478] (!!) init: starting 'RVCServer'</t>
+  </si>
+  <si>
+    <t>[    5.595832] (!!) init: starting 'probeserver'</t>
+  </si>
+  <si>
+    <t>[    5.596173] (!!) init: starting 'audioserver'</t>
+  </si>
+  <si>
+    <t>[    5.596507] (!!) init: starting 'mediaparser'</t>
+  </si>
+  <si>
+    <t>[    5.596829] (!!) init: starting 'mediacarlife'</t>
+  </si>
+  <si>
+    <t>[    5.597198] (!!) init: starting 'mpserver'</t>
+  </si>
+  <si>
+    <t>[    5.597542] (!!) init: starting 'ttsmain-navi'</t>
+  </si>
+  <si>
+    <t>[    5.597929] (!!) init: starting 'voicerecog'</t>
+  </si>
+  <si>
+    <t>[    5.598287] (!!) init: starting 'mediaserver'</t>
+  </si>
+  <si>
+    <t>[    5.598627] (!!) init: starting 'mediabrowser'</t>
+  </si>
+  <si>
+    <t>[    5.598985] (!!) init: starting 'mediaipod'</t>
+  </si>
+  <si>
+    <t>[    5.599404] (!!) init: starting 'mediabtaudio'</t>
+  </si>
+  <si>
+    <t>[    5.599743] (!!) init: starting 'mediatuner'</t>
+  </si>
+  <si>
+    <t>[    5.600175] (!!) init: starting 'mediadvd'</t>
+  </si>
+  <si>
+    <t>[    5.600506] (!!) init: starting 'MeterServer'</t>
+  </si>
+  <si>
+    <t>[    5.640964] (!!) init: starting 'WidgetServer'</t>
+  </si>
+  <si>
+    <t>[    5.647199] (!!) init:   + process(async modules-net-load) waiting to be activated</t>
+  </si>
+  <si>
+    <t>[    5.647710] (!!) init: starting 'netd'</t>
+  </si>
+  <si>
+    <t>[    5.648049] (!!) init: starting 'carworld'</t>
+  </si>
+  <si>
+    <t>[    5.648391] (!!) init: processing action 0xe4648 (boot)</t>
+  </si>
+  <si>
+    <t>[    5.648469] (!!) init: processing action 0xe5a18 (queue_propety_triggers)</t>
+  </si>
+  <si>
+    <t>[    5.648566] (!!) init: processing action 0xdff98 (property:sys.usb.config=none)</t>
+  </si>
+  <si>
+    <t>[    5.648675] (EE) init: command 'write /sys/class/android_usb/android0/enable 0', r=-2</t>
+  </si>
+  <si>
+    <t>[    5.648705] (EE) init: command 'write /sys/class/android_usb/android0/bDeviceClass 0', r=-2</t>
+  </si>
+  <si>
+    <t>[    5.648753] (!!) init: processing action 0xe1858 (property:ro.debuggable=1)</t>
+  </si>
+  <si>
+    <t>[    5.648777] (!!) init: starting 'console'</t>
+  </si>
+  <si>
+    <t>[    5.660294] (!!) init:   + process(async modules-audio-load) waiting to be activated</t>
+  </si>
+  <si>
+    <t>[    5.660325] (!!) init:   + process(async modules-audio-load) started</t>
+  </si>
+  <si>
+    <t>[    5.690303] NHKeyHandler:[run] open all input device success.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    5.970102] </t>
+  </si>
+  <si>
+    <t>[    5.970630] NHuCom:recieve Sys Boot version: 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>[    5.970914] NHuCom:Receive Amigo program version: 45 30 31 30 30 32 30 44</t>
+  </si>
+  <si>
+    <t>[    5.971083] NHuCom:Receive Amigo data version: 30 31 30 30 30 30 45 30</t>
+  </si>
+  <si>
+    <t>[    5.973494] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:10.</t>
+  </si>
+  <si>
+    <t>[    5.975366] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:0.</t>
+  </si>
+  <si>
+    <t>[    5.990964] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
+  </si>
+  <si>
+    <t>[    6.007186] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
+  </si>
+  <si>
+    <t>[    6.025751] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
+  </si>
+  <si>
+    <t>[    6.046120] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
+  </si>
+  <si>
+    <t>[    6.158109] fsl-asrc 2034000.asrc: driver registered</t>
+  </si>
+  <si>
+    <t>uid=0 gid=1007@nutshell:/ # [    6.389898] imx-mic_adc sound_mic_adc: mic_adc &lt;-&gt; 2030000.ssi mapping ok</t>
+  </si>
+  <si>
+    <t>[    6.456133] [TC:5066][TT:55] [Opening] [Opening Caution] chechBootAnimEnd start</t>
+  </si>
+  <si>
+    <t>[    6.556731] (II) early_rvc: Get sig=15</t>
+  </si>
+  <si>
+    <t>[    6.562547] (!!) init: waitpid returned pid 61, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    6.562817] ml86303 3-0038: ioctl_s_ctrl: RVCServer(238) request switch channel 0 --&gt; 0</t>
+  </si>
+  <si>
+    <t>[    6.562883] ml86303 3-0038: ml86303_set_sleep_mode: 1</t>
+  </si>
+  <si>
+    <t>[    6.584655] (!!) init: process 'early_rvc', pid 61 exited</t>
+  </si>
+  <si>
+    <t>[    7.139045] random: nonblocking pool is initialized</t>
+  </si>
+  <si>
+    <t>[    7.234816] imx-softec_bt sound_bt: softec_bt &lt;-&gt; 202c000.ssi mapping ok</t>
+  </si>
+  <si>
+    <t>[    7.268534] NHSysCtrl:check partition system OK</t>
+  </si>
+  <si>
+    <t>[    7.273353] NHSysCtrl:check partition var OK</t>
+  </si>
+  <si>
+    <t>[    7.277838] NHSysCtrl:check partition data OK</t>
+  </si>
+  <si>
+    <t>[    7.282536] NHSysCtrl:check partition vdata OK</t>
+  </si>
+  <si>
+    <t>[    7.287149] NHSysCtrl:check partition meixingapl OK</t>
+  </si>
+  <si>
+    <t>[    7.292951] NHSysCtrl:check partition meixingmap OK</t>
+  </si>
+  <si>
+    <t>[    7.365130] imx-mn103sw20 sound_media: mn103sw20 &lt;-&gt; 2024000.esai mapping ok</t>
+  </si>
+  <si>
+    <t>[    7.517179] usbcore: registered new interface driver snd-usb-audio</t>
+  </si>
+  <si>
+    <t>[    7.538414] ******************  NQLoadSystemLibraries begin</t>
+  </si>
+  <si>
+    <t>[    7.558900] (!!) init:   + process(async modules-audio-load) exited</t>
+  </si>
+  <si>
+    <t>[    7.587730] (!!) init: waitpid returned pid 232, status = 00000000</t>
+  </si>
+  <si>
+    <t>[    7.852951] ******************  NQLoadSystemLibraries end</t>
+  </si>
+  <si>
+    <t>[    7.861433] ******************  open libAppLaunch APPLAUNCHER_SO begin</t>
+  </si>
+  <si>
+    <t>[    8.034116] ******************  open libAppLaunch end</t>
+  </si>
+  <si>
+    <t>[    8.039717] ******************  openplugin APPLAUNCHER_PLAGIN begin</t>
+  </si>
+  <si>
+    <t>[    8.088575] [TC:6698][TT:64] [Opening] [Opening Caution] chechBootAnimEnd end</t>
+  </si>
+  <si>
+    <t>[    8.098977] [TC:6708][TT:72] [Opening] [Opening Caution] before shown</t>
+  </si>
+  <si>
+    <t>[    8.144565] (!!) init: starting 'wlDriver'</t>
+  </si>
+  <si>
+    <t>[    8.198861] [TC:6808][TT:0] [SystemService] check Env.</t>
+  </si>
+  <si>
+    <t>[    8.253341] [TC:6863][TT:5] [SystemService] start setting.</t>
+  </si>
+  <si>
+    <t>[    8.417897] ******************  openplugin end</t>
+  </si>
+  <si>
+    <t>[    8.614672] [TC:7224][TT:146] [Opening] [Opening Caution] shown</t>
+  </si>
+  <si>
+    <t>[    8.701355] [TC:7311][TT:2] [SystemService] notify service ready [ttsmain-navi]</t>
+  </si>
+  <si>
+    <t>[    8.802189] (!!) init: waitpid returned pid 929, status = 00007f00</t>
+  </si>
+  <si>
+    <t>[    8.809771] (EE) init: untracked pid 929 exited</t>
+  </si>
+  <si>
+    <t>[    9.298687] [TC:7908][TT:235] [SystemService] boot completed.</t>
+  </si>
+  <si>
+    <t>[    9.313371] [TC:7923][TT:241] [SystemService] start lazy service by App [naviserver]</t>
+  </si>
+  <si>
+    <t>[    9.337427] (!!) init: starting 'naviserver'</t>
+  </si>
+  <si>
+    <t>[    9.343068] [TC:7953][TT:0] [SystemService] notify AplReady.</t>
+  </si>
+  <si>
+    <t>[    9.513103] NHSysCtrl:SetBacklightBrightness(130)</t>
+  </si>
+  <si>
+    <t>[    9.775904] wlan: loading driver v4.0.11.203</t>
+  </si>
+  <si>
+    <t>[    9.866504] mmc2: queuing unknown CIS tuple 0x01 (3 bytes)</t>
+  </si>
+  <si>
+    <t>[    9.888327] mmc2: queuing unknown CIS tuple 0x1a (5 bytes)</t>
+  </si>
+  <si>
+    <t>[    9.898702] mmc2: queuing unknown CIS tuple 0x1b (8 bytes)</t>
+  </si>
+  <si>
+    <t>[    9.906867] mmc2: queuing unknown CIS tuple 0x14 (0 bytes)</t>
+  </si>
+  <si>
+    <t>[    9.926360] hifDeviceInserted: Dumping clocks (50000000,198000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    9.934503] HIFDumpCCCR 0(43) 1(3) 2(0) 3(0) 4(0) 5(0) 6(0) 7(6) 8(17) 9(0) A(10) B(0) C(0) D(0) E(0) F(0) 10(0) 11(0) 12(1) 13(3) 14(7) 15(0) 16(1) </t>
+  </si>
+  <si>
+    <t>[    9.953434] AR6000: Set async interrupt delay clock as 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[    9.991802] AR6000: configuration opcode 3 is not used for Linux SDIO stack </t>
+  </si>
+  <si>
+    <t>[   10.001079] NUM_DEV=1 FWMODE=0x2 FWSUBMODE=0x0 FWBR_BUF 0</t>
+  </si>
+  <si>
+    <t>[   10.017847] ol_download_firmware: Using 0x1234 for the remainder of init</t>
+  </si>
+  <si>
+    <t>[   10.029450] NHSysCtrl:SetScreenContrast(128)</t>
+  </si>
+  <si>
+    <t>[   10.096175] ml86303 3-0038: ml86303_set_chroma: 64 64 1 1</t>
+  </si>
+  <si>
+    <t>[   10.156827] __ol_transfer_bin_file: Failed to get bdwlan30.b00</t>
+  </si>
+  <si>
+    <t>[   10.164734] __ol_transfer_bin_file: Trying to load default bdwlan30.bin</t>
+  </si>
+  <si>
+    <t>[   10.181897] Board extended Data download address: 0x0</t>
+  </si>
+  <si>
+    <t>[   10.207227] __ol_transfer_bin_file: Loading setup file qsetup30.bin</t>
+  </si>
+  <si>
+    <t>[   10.238231] __ol_transfer_bin_file: Failed to get qsetup30.bin</t>
+  </si>
+  <si>
+    <t>[   11.260627] HIF Interrupt processing is SYNC ONLY</t>
+  </si>
+  <si>
+    <t>[   11.265575] AR6000: configuration opcode 7 is only used for RTOS systems, not Linux systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   11.274505] AR6000: configuration opcode 5 is not used for Linux SDIO stack </t>
+  </si>
+  <si>
+    <t>[   11.282225] ol_if_dfs_attach: called; ptr=a5519c1c, radar_info=ab843a0c</t>
+  </si>
+  <si>
+    <t>[   11.290592] +HWT</t>
+  </si>
+  <si>
+    <t>[   11.293181] -HWT</t>
+  </si>
+  <si>
+    <t>[   11.296055] MAILBOX SWAP Service is enabled!</t>
+  </si>
+  <si>
+    <t>[   11.303224] Reduced Tx Complete service is enabled!</t>
+  </si>
+  <si>
+    <t>[   11.313051] is_full_reorder_offloaded? 0</t>
+  </si>
+  <si>
+    <t>[   11.321690] HTC Service:0x0300 ep:1 TX flow control disabled</t>
+  </si>
+  <si>
+    <t>[   11.329249] TXRX: page_divider 0x6, offset_filter 0x3f num elem 4800, ol desc num page 75, ol desc per page 64</t>
+  </si>
+  <si>
+    <t>[   11.346198] __wmi_control_rx: Unhandled WMI event 3</t>
+  </si>
+  <si>
+    <t>[   11.352038] __wmi_control_rx: WMI UNIFIED SERVICE READY event</t>
+  </si>
+  <si>
+    <t>[   11.371226] __wmi_control_rx:  WMI UNIFIED READY event</t>
+  </si>
+  <si>
+    <t>[   11.381293] __wmi_control_rx : event handler is not registered: event id 0x1d019</t>
+  </si>
+  <si>
+    <t>[   11.382287] cfg80211: Regulatory domain changed to country: US</t>
+  </si>
+  <si>
+    <t>[   11.382294] cfg80211:  DFS Master region: FCC</t>
+  </si>
+  <si>
+    <t>[   11.382294] cfg80211:   (start_freq - end_freq @ bandwidth), (max_antenna_gain, max_eirp), (dfs_cac_time)</t>
+  </si>
+  <si>
+    <t>[   11.382302] cfg80211:   (2402000 KHz - 2472000 KHz @ 40000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.382306] cfg80211:   (5170000 KHz - 5250000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.382311] cfg80211:   (5250000 KHz - 5330000 KHz @ 80000 KHz), (N/A, 300 mBm), (0 s)</t>
+  </si>
+  <si>
+    <t>[   11.382316] cfg80211:   (5490000 KHz - 5600000 KHz @ 80000 KHz), (N/A, 300 mBm), (0 s)</t>
+  </si>
+  <si>
+    <t>[   11.382321] cfg80211:   (5650000 KHz - 5710000 KHz @ 40000 KHz), (N/A, 300 mBm), (0 s)</t>
+  </si>
+  <si>
+    <t>[   11.382325] cfg80211:   (5710000 KHz - 5835000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.382330] cfg80211:   (57240000 KHz - 63720000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.467579] Host SW:4.0.11.203, FW:2.0.0.140, HW:QCA6174_REV3_2</t>
+  </si>
+  <si>
+    <t>[   11.475107] ol_pktlog_init: pktlogmod_init successfull</t>
+  </si>
+  <si>
+    <t>[   11.482063] target uses HTT version 3.48; host uses 3.28</t>
+  </si>
+  <si>
+    <t>[   11.482895] ath_hif_sdio: HIF (Atheros/multi-bss)</t>
+  </si>
+  <si>
+    <t>[   11.482901] wlan: driver loaded in 1710000</t>
+  </si>
+  <si>
+    <t>[   11.484857] IPv6: ADDRCONF(NETDEV_UP): wlan0: link is not ready</t>
+  </si>
+  <si>
+    <t>[   11.502214] *** Warning: host/target HTT versions are different, though compatible!</t>
+  </si>
+  <si>
+    <t>[   11.511330] (!!) init: starting 'wpa_supplicant'</t>
+  </si>
+  <si>
+    <t>[   11.616180] IPv6: ADDRCONF(NETDEV_UP): p2p0: link is not ready</t>
+  </si>
+  <si>
+    <t>[   11.721262] cfg80211: Regulatory domain changed to country: CN</t>
+  </si>
+  <si>
+    <t>[   11.729691] cfg80211:  DFS Master region: unset</t>
+  </si>
+  <si>
+    <t>[   11.762815] cfg80211:   (start_freq - end_freq @ bandwidth), (max_antenna_gain, max_eirp), (dfs_cac_time)</t>
+  </si>
+  <si>
+    <t>[   11.789545] cfg80211:   (2402000 KHz - 2482000 KHz @ 40000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.798473] cfg80211:   (5150000 KHz - 5250000 KHz @ 80000 KHz), (N/A, 600 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.808239] cfg80211:   (5250000 KHz - 5350000 KHz @ 80000 KHz), (N/A, 600 mBm), (0 s)</t>
+  </si>
+  <si>
+    <t>[   11.818842] cfg80211:   (5725000 KHz - 5850000 KHz @ 80000 KHz), (N/A, 600 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.832986] cfg80211:   (5735000 KHz - 5835000 KHz @ 80000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.843396] cfg80211:   (57240000 KHz - 59400000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.854740] cfg80211:   (59400000 KHz - 63720000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   11.866608] cfg80211:   (63720000 KHz - 65880000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
+  </si>
+  <si>
+    <t>[   12.354911] (!!) init: waitpid returned pid 245, status = 0000000b</t>
+  </si>
+  <si>
+    <t>[   12.365977] (!!) init: process 'voicerecog', pid 245 exited</t>
+  </si>
+  <si>
+    <t>[   12.373773] (!!) init: process 'voicerecog' killing any children in process group</t>
+  </si>
+  <si>
+    <t>[   12.389342] (!!) init: starting 'voicerecog'</t>
+  </si>
+  <si>
+    <t>[   13.025063] FAT-fs (sda1): Volume was not properly unmounted. Some data may be corrupt. Please run fsck.</t>
+  </si>
+  <si>
+    <t>[   13.051382] NHSysCtrl:CheckStartSeq(mediaID:0),m_dwStartStatus:0x19b,m_dwMdlMainMode:0x2</t>
+  </si>
+  <si>
+    <t>[   13.059971] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:0),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x19b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   13.086424] NHSysCtrl:CheckStartSeq  --&gt;CheckUpdateKey(eMedia:0) </t>
+  </si>
+  <si>
+    <t>[   13.105327] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
+  </si>
+  <si>
+    <t>[   13.115171] NHSysCtrl:CheckStartSeq  --&gt;CheckTestModeKey(eMedia:0) not find TESTMODE.KEY</t>
+  </si>
+  <si>
+    <t>[   14.224621] (!!) init: service 'bootani' is being stopped</t>
+  </si>
+  <si>
+    <t>[   14.234518] (!!) bootani: signal to exit</t>
+  </si>
+  <si>
+    <t>[   14.281060] (!!) init: service 'bootani' is being stopped</t>
+  </si>
+  <si>
+    <t>[   14.287017] (!!) init: waitpid returned pid 60, status = 00000000</t>
+  </si>
+  <si>
+    <t>[   14.293591] (!!) init: process 'bootani', pid 60 exited</t>
+  </si>
+  <si>
+    <t>[   15.385314] [TOUCH]:(func:mxt_interrupt)receive response in 5s, jiffies: 4294938695.</t>
+  </si>
+  <si>
+    <t>[   15.395132] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:10.</t>
+  </si>
+  <si>
+    <t>[   15.404933] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:0.</t>
+  </si>
+  <si>
+    <t>[   15.866708] (!!) init: waitpid returned pid 1143, status = 0000000b</t>
+  </si>
+  <si>
+    <t>[   15.874518] (!!) init: process 'voicerecog', pid 1143 exited</t>
+  </si>
+  <si>
+    <t>[   15.880819] (!!) init: process 'voicerecog' killing any children in process group</t>
+  </si>
+  <si>
+    <t>[   16.811603] (!!) init: processing action 0xe14e8 (property:appmgr.lazystart=trigger_home_started)</t>
+  </si>
+  <si>
+    <t>[   16.922847] [TC:15532][TT:8] [SystemService] PLCaution confirmed [20]</t>
+  </si>
+  <si>
+    <t>[   16.947089] [TC:15557][TT:15] [SystemService] First App ready [20]</t>
+  </si>
+  <si>
+    <t>[   16.967640] [TC:15577][TT:0] [SystemService] start lazy service [naviserver]</t>
+  </si>
+  <si>
+    <t>[   17.069925] (!!) init: waitpid returned pid 92, status = 00000000</t>
+  </si>
+  <si>
+    <t>[   17.077839] (!!) init: process 'Opening', pid 92 exited</t>
+  </si>
+  <si>
+    <t>[   18.101731] (!!) init: starting 'voicerecog'</t>
+  </si>
+  <si>
     <t>[    1.783562] usbcore: registered new interface driver usbfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_register(&amp;usb_bus_type);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册usb bus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_register_notifier(&amp;usb_bus_type, &amp;usb_bus_nb);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_major_init();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_chrdev(USB_MAJOR, "usb", &amp;usb_fops);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册usb设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register(&amp;usbfs_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_devio_init();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register_driver(driver, THIS_MODULE, KBUILD_MODNAME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_register(&amp;new_driver-&gt;drvwrap.driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdev_add(&amp;usb_device_cdev, USB_DEVICE_DEV, USB_DEVICE_MAX);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register(&amp;hub_driver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册usbfs_driver, 对应log: usbcore: registered new interface driver usbfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    1.783640] usbcore: registered new interface driver hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册hub_driver, 对应log: usbcore: registered new interface driver hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register_device_driver(&amp;usb_generic_driver, THIS_MODULE);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_register(&amp;new_udriver-&gt;drvwrap.driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    1.783764] usbcore: registered new device driver usb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册usb设备驱动, 对应log: usbcore: registered new device driver usb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2210 #</t>
+  </si>
+  <si>
+    <t>2211 # USB Host Controller Drivers</t>
+  </si>
+  <si>
+    <t>2212 #</t>
+  </si>
+  <si>
+    <t>2214 # CONFIG_USB_XHCI_HCD is not set</t>
+  </si>
+  <si>
+    <t>2215 CONFIG_USB_EHCI_HCD=y</t>
+  </si>
+  <si>
+    <t>2220 # CONFIG_USB_EHCI_HCD_PLATFORM is not set</t>
+  </si>
+  <si>
+    <t>2221 # CONFIG_USB_OXU210HP_HCD is not set</t>
+  </si>
+  <si>
+    <t>2222 # CONFIG_USB_ISP116X_HCD is not set</t>
+  </si>
+  <si>
+    <t>2223 # CONFIG_USB_ISP1362_HCD is not set</t>
+  </si>
+  <si>
+    <t>2224 # CONFIG_USB_FUSBH200_HCD is not set</t>
+  </si>
+  <si>
+    <t>2225 # CONFIG_USB_FOTG210_HCD is not set</t>
+  </si>
+  <si>
+    <t>2226 # CONFIG_USB_MAX3421_HCD is not set</t>
+  </si>
+  <si>
+    <t>2227 # CONFIG_USB_OHCI_HCD is not set</t>
+  </si>
+  <si>
+    <t>2228 # CONFIG_USB_SL811_HCD is not set</t>
+  </si>
+  <si>
+    <t>2229 # CONFIG_USB_R8A66597_HCD is not set</t>
+  </si>
+  <si>
+    <t>2230 # CONFIG_USB_IMX21_HCD is not set</t>
+  </si>
+  <si>
+    <t>2213 # CONFIG_USB_C67X00_HCD is not set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/usb/host/Makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2216 CONFIG_USB_EHCI_ROOT_HUB_TT=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2217 CONFIG_USB_EHCI_TT_NEWSCHED=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2218 CONFIG_USB_FSL_MPH_DR_OF=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 obj-$(CONFIG_USB_FSL_MPH_DR_OF) += fsl-mph-dr-of.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2219 CONFIG_USB_EHCI_MXC=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 obj-$(CONFIG_USB_EHCI_MXC)  += ehci-mxc.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2231 CONFIG_USB_HCD_TEST_MODE=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 obj-$(CONFIG_USB_EHCI_HCD)  += ehci-hcd.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsys_initcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    1.783977] 2000000.aips-bus:usbphy_nop1 supply vcc not found, using dummy regulator</t>
-  </si>
-  <si>
-    <t>[    1.784128] 2000000.aips-bus:usbphy_nop2 supply vcc not found, using dummy regulator</t>
-  </si>
-  <si>
-    <t>[    1.784751] imx-i2c 21a0000.i2c: &lt;i2c_imx_probe&gt;</t>
-  </si>
-  <si>
-    <t>[    1.785472] i2c i2c-0: IMX I2C adapter registered</t>
-  </si>
-  <si>
-    <t>[    1.785492] i2c i2c-0: can't use DMA</t>
-  </si>
-  <si>
-    <t>[    1.785666] imx-i2c 21a4000.i2c: &lt;i2c_imx_probe&gt;</t>
-  </si>
-  <si>
-    <t>[    1.785913] i2c i2c-1: IMX I2C adapter registered</t>
-  </si>
-  <si>
-    <t>[    1.785931] i2c i2c-1: can't use DMA</t>
-  </si>
-  <si>
-    <t>[    1.786092] imx-i2c 21a8000.i2c: &lt;i2c_imx_probe&gt;</t>
-  </si>
-  <si>
-    <t>[    1.786631] i2c i2c-2: IMX I2C adapter registered</t>
-  </si>
-  <si>
-    <t>[    1.786649] i2c i2c-2: can't use DMA</t>
-  </si>
-  <si>
-    <t>[    1.786895] imx-i2c 21f8000.i2c: &lt;i2c_imx_probe&gt;</t>
-  </si>
-  <si>
-    <t>[    1.787373] i2c i2c-3: IMX I2C adapter registered</t>
-  </si>
-  <si>
-    <t>[    1.787389] i2c i2c-3: can't use DMA</t>
-  </si>
-  <si>
-    <t>[    1.787510] Linux video capture interface: v2.00</t>
-  </si>
-  <si>
-    <t>[    1.806925] imx-ipuv3 2400000.ipu: IPU DMFC NORMAL mode: 1(0~1), 5B(4,5), 5F(6,7)</t>
-  </si>
-  <si>
-    <t>[    1.807709] *** ipu_iauto_alloc_init: ipu_iauto_alloc_zone phys=0x7A600000</t>
-  </si>
-  <si>
-    <t>[    1.809460] cfg80211: World regulatory domain updated:</t>
-  </si>
-  <si>
-    <t>[    1.809472] cfg80211:  DFS Master region: unset</t>
-  </si>
-  <si>
-    <t>[    1.809481] cfg80211:   (start_freq - end_freq @ bandwidth), (max_antenna_gain, max_eirp), (dfs_cac_time)</t>
-  </si>
-  <si>
-    <t>[    1.809494] cfg80211:   (2402000 KHz - 2472000 KHz @ 40000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[    1.809506] cfg80211:   (2457000 KHz - 2482000 KHz @ 40000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[    1.809517] cfg80211:   (2474000 KHz - 2494000 KHz @ 20000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[    1.809526] cfg80211:   (5170000 KHz - 5250000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[    1.809535] cfg80211:   (5735000 KHz - 5835000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[    1.809545] cfg80211:   (57240000 KHz - 63720000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[    1.810044] Switched to clocksource mxc_timer1</t>
-  </si>
-  <si>
-    <t>[    1.816952] NET: Registered protocol family 2</t>
-  </si>
-  <si>
-    <t>[    1.817638] TCP established hash table entries: 8192 (order: 3, 32768 bytes)</t>
-  </si>
-  <si>
-    <t>[    1.817728] TCP bind hash table entries: 8192 (order: 4, 65536 bytes)</t>
-  </si>
-  <si>
-    <t>[    1.817866] TCP: Hash tables configured (established 8192 bind 8192)</t>
-  </si>
-  <si>
-    <t>[    1.818012] UDP hash table entries: 512 (order: 2, 16384 bytes)</t>
-  </si>
-  <si>
-    <t>[    1.818052] UDP-Lite hash table entries: 512 (order: 2, 16384 bytes)</t>
-  </si>
-  <si>
-    <t>[    1.818272] NET: Registered protocol family 1</t>
-  </si>
-  <si>
-    <t>[    1.818563] Unpacking initramfs...</t>
-  </si>
-  <si>
-    <t>[    1.845394] Freeing initrd memory: 336K (82800000 - 82854000)</t>
-  </si>
-  <si>
-    <t>[    1.845774] CPU PMU: Failed to parse /soc/pmu/interrupt-affinity[0]</t>
-  </si>
-  <si>
-    <t>[    1.845835] hw perfevents: enabled with armv7_cortex_a9 PMU driver, 7 counters available</t>
-  </si>
-  <si>
-    <t>[    1.847591] Bus freq driver module loaded</t>
-  </si>
-  <si>
-    <t>[    1.848633] futex hash table entries: 512 (order: 3, 32768 bytes)</t>
-  </si>
-  <si>
-    <t>[    1.857352] bounce: pool size: 64 pages</t>
-  </si>
-  <si>
-    <t>[    1.857377] io scheduler noop registered</t>
-  </si>
-  <si>
-    <t>[    1.857395] io scheduler deadline registered</t>
-  </si>
-  <si>
-    <t>[    1.857447] io scheduler cfq registered (default)</t>
-  </si>
-  <si>
-    <t>[    1.857479] LinuxCrashDump[Debug]: Init the linux crash dump driver</t>
-  </si>
-  <si>
-    <t>[    1.857801] LinuxCrashDump[Debug]: Probe the linux crash dump driver</t>
-  </si>
-  <si>
-    <t>[    1.857918] LinuxCrashDumpDebugModule: linux crash dump: phys_addr=0x7fc00000 size=0x300000 virt_addr=0xcdc00000</t>
-  </si>
-  <si>
-    <t>[    1.858396] imx-weim 21b8000.weim: Driver registered.</t>
-  </si>
-  <si>
-    <t>[    1.859725] pwm-backlight backlight@0: set enable gpio 0</t>
-  </si>
-  <si>
-    <t>[    1.859755] backlight@0 supply power not found, using dummy regulator</t>
-  </si>
-  <si>
-    <t>[    1.859960] pwm-backlight backlight@0: probe info: 1 0 0</t>
-  </si>
-  <si>
-    <t>[    1.860159] backlight@1 supply power not found, using dummy regulator</t>
-  </si>
-  <si>
-    <t>[    1.860363] pwm-backlight backlight@1: probe info: 0 0 80</t>
-  </si>
-  <si>
-    <t>[    1.862883] mxc_sdc_fb fb@0: registered mxc display driver ldb</t>
-  </si>
-  <si>
-    <t>[    1.890139] imx-ipuv3 2400000.ipu: IPU DMFC DP HIGH RESOLUTION: 1(0,1), 5B(2~5), 5F(6,7)</t>
-  </si>
-  <si>
-    <t>[    1.935659] imx-sdma 20ec000.sdma: no iram assigned, using external mem</t>
-  </si>
-  <si>
-    <t>[    1.937125] imx-sdma 20ec000.sdma: loaded firmware 3.3</t>
-  </si>
-  <si>
-    <t>[    1.939811] imx-sdma 20ec000.sdma: initialized</t>
-  </si>
-  <si>
-    <t>[    1.940921] 2020000.serial: ttymxc0 at MMIO 0x2020000 (irq = 22, base_baud = 5000000) is a IMX</t>
-  </si>
-  <si>
-    <t>[    2.840929] console [ttymxc0] enabled</t>
-  </si>
-  <si>
-    <t>[    2.845381] 21e8000.serial: ttymxc1 at MMIO 0x21e8000 (irq = 293, base_baud = 5000000) is a IMX</t>
-  </si>
-  <si>
-    <t>[    2.854687] 21ec000.serial: ttymxc2 at MMIO 0x21ec000 (irq = 294, base_baud = 5000000) is a IMX</t>
-  </si>
-  <si>
-    <t>[    2.865518] [drm] Initialized drm 1.1.0 20060810</t>
-  </si>
-  <si>
-    <t>[    2.870603] [drm] Initialized vivante 1.0.0 20120216 on minor 0</t>
-  </si>
-  <si>
-    <t>[    2.877368] tun: Universal TUN/TAP device driver, 1.6</t>
-  </si>
-  <si>
-    <t>[    2.882472] tun: (C) 1999-2004 Max Krasnyansky &lt;maxk@qualcomm.com&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.888775] ehci_hcd: USB 2.0 'Enhanced' Host Controller (EHCI) Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_initcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehci_hcd_init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// ehci_hcd初始化, 对应log: ehci_hcd: USB 2.0 'Enhanced' Host Controller (EHCI) Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehci_mxc_init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.895343] ehci-mxc: Freescale On-Chip EHCI Host driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// ehci_mxc初始化, 对应log: ehci-mxc: Freescale On-Chip EHCI Host driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehci_init_driver(&amp;ehci_mxc_hc_driver, &amp;ehci_mxc_overrides);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_driver_register(&amp;ehci_mxc_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehci_mxc_drv_probe()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2233 #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2234 # USB Device Class drivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2235 #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2236 CONFIG_USB_ACM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2237 CONFIG_USB_VCM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2238 # CONFIG_USB_PRINTER is not set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2239 CONFIG_USB_WDM=y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2240 # CONFIG_USB_TMC is not set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/usb/class/Makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 obj-$(CONFIG_USB_ACM) += cdc-acm.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 obj-$(CONFIG_USB_VCM) += cdc-vcm.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 obj-$(CONFIG_USB_WDM) += cdc-wdm.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acm_init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.901109] usbcore: registered new interface driver cdc_acm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tty_register_driver(acm_tty_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.906778] cdc_acm: USB Abstract Control Model driver for USB modems and ISDN adapters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册acm驱动, 对应log: usbcore: registered new interface driver cdc_acm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// acm初始化, 对应log: cdc_acm: USB Abstract Control Model driver for USB modems and ISDN adapters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcm_init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register(&amp;vcm_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.914880] usbcore: registered new interface driver cdc_vcm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册vcm驱动, 对应log: usbcore: registered new interface driver cdc_vcm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.920570] cdc_vcm: USB Abstract Control Model driver for USB modems and ISDN adapters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// vcm初始化, 对应log: cdc_vcm: USB Abstract Control Model driver for USB modems and ISDN adapters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_usb_driver(wdm_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register(&amp;wdm_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.928636] usbcore: registered new interface driver cdc_wdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册wdm驱动, 对应log: usbcore: registered new interface driver cdc_wdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_usb_driver(usb_storage_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register(&amp;usb_storage_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.934413] usbcore: registered new interface driver usb-storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册usb_storage驱动, 对应log: usbcore: registered new interface driver usb-storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.940508] usbcore: registered new interface driver usb_ehset_test</t>
-  </si>
-  <si>
-    <t>[    2.947934] 2184800.usbmisc supply vbus-wakeup not found, using dummy regulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_usb_driver(ehset_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register(&amp;ehset_driver);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 注册ehset驱动, 对应log: usbcore: registered new interface driver usb_ehset_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/usb/storage/Makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 usb-storage-y := scsiglue.o protocol.o transport.o usb.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 usb-storage-y += initializers.o sierra_ms.o option_ms.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 usb-storage-y += usual-tables.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.960529] ci_hdrc ci_hdrc.0: EHCI Host Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_add_hcd(hcd, irq, IRQF_SHARED);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_register_bus(&amp;hcd-&gt;self)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.965441] ci_hdrc ci_hdrc.0: new USB bus registered, assigned bus number 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 对应log: ci_hdrc ci_hdrc.0: new USB bus registered, assigned bus number 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 对应log: ci_hdrc ci_hdrc.0: EHCI Host Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*drv = ehci_hc_driver;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 重要: ehci_hc_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehci_run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    2.990097] ci_hdrc ci_hdrc.0: USB 2.0 started, EHCI 1.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// hcd-&gt;driver-&gt;start(hcd);, 对应log: ci_hdrc ci_hdrc.0: USB 2.0 started, EHCI 1.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_root_hub(hcd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_new_device (usb_dev);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_add(&amp;udev-&gt;dev);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic_probe()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_choose_configuration(udev);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_set_configuration(udev, c);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_add(&amp;intf-&gt;dev);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_alloc_urb(0, GFP_KERNEL);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_submit_urb(hub-&gt;urb, GFP_NOIO);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hub_irq()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick_hub_wq(hub);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_submit_urb (hub-&gt;urb, GFP_ATOMIC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_alloc_dev(hdev, hdev-&gt;bus, port1);</t>
+  </si>
+  <si>
+    <t>usb_set_device_state(udev, USB_STATE_POWERED);</t>
+  </si>
+  <si>
+    <t>hub_port_init(hub, udev, port1, i);</t>
+  </si>
+  <si>
+    <t>usb_new_device(udev);</t>
+  </si>
+  <si>
+    <t>usb_enumerate_device(udev);</t>
   </si>
   <si>
     <t>[    2.996263] hub 1-0:1.0: USB hub found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 对应log: hub 1-0:1.0: USB hub found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[    3.000106] hub 1-0:1.0: 1 port detected</t>
-  </si>
-  <si>
-    <t>[    3.008199] ci_hdrc ci_hdrc.1: EHCI Host Controller</t>
-  </si>
-  <si>
-    <t>[    3.013153] ci_hdrc ci_hdrc.1: new USB bus registered, assigned bus number 2</t>
-  </si>
-  <si>
-    <t>[    3.040101] ci_hdrc ci_hdrc.1: USB 2.0 started, EHCI 1.00</t>
-  </si>
-  <si>
-    <t>[    3.046280] hub 2-0:1.0: USB hub found</t>
-  </si>
-  <si>
-    <t>[    3.050119] hub 2-0:1.0: 1 port detected</t>
-  </si>
-  <si>
-    <t>[    3.055543] input: automotive_tp as /devices/virtual/input/input0</t>
-  </si>
-  <si>
-    <t>[    3.062596] snvs_rtc 20cc000.snvs:snvs-rtc-lp: rtc core: registered 20cc000.snvs:snvs-r as rtc0</t>
-  </si>
-  <si>
-    <t>[    3.071489] i2c /dev entries driver</t>
-  </si>
-  <si>
-    <t>[    3.076487] ml86303_init use ML86286</t>
-  </si>
-  <si>
-    <t>[    3.080430] bsp: 0 0 0 130 128 0x4040</t>
-  </si>
-  <si>
-    <t>[    3.084447] camera category: pvm_on: 1 pvm_det: 0</t>
-  </si>
-  <si>
-    <t>[    3.089161] camera category: camera category is 1</t>
-  </si>
-  <si>
-    <t>[    3.094570] mxc_v4l2_output v4l2_out: V4L2 device registered as video16</t>
-  </si>
-  <si>
-    <t>[    3.101854] mxc_v4l2_output v4l2_out: V4L2 device registered as video17</t>
-  </si>
-  <si>
-    <t>[    3.109735] sdhci: Secure Digital Host Controller Interface driver</t>
-  </si>
-  <si>
-    <t>[    3.115966] sdhci: Copyright(c) Pierre Ossman</t>
-  </si>
-  <si>
-    <t>[    3.120358] sdhci-pltfm: SDHCI platform and OF driver helper</t>
-  </si>
-  <si>
-    <t>[    3.127300] /soc/aips-bus@02100000/usdhc@02198000: voltage-ranges unspecified</t>
-  </si>
-  <si>
-    <t>[    3.180172] mmc2: SDHCI controller on 2198000.usdhc [2198000.usdhc] using ADMA</t>
-  </si>
-  <si>
-    <t>[    3.199372] /soc/aips-bus@02100000/usdhc@0219c000: voltage-ranges unspecified</t>
-  </si>
-  <si>
-    <t>[    3.209270] sdhci-esdhc-imx 219c000.usdhc: No vmmc regulator found</t>
-  </si>
-  <si>
-    <t>[    3.215546] sdhci-esdhc-imx 219c000.usdhc: No vqmmc regulator found</t>
-  </si>
-  <si>
-    <t>[    3.235416] mmc2: queuing unknown CIS tuple 0x01 (3 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.250950] mmc2: queuing unknown CIS tuple 0x1a (5 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.260012] mmc2: queuing unknown CIS tuple 0x1b (8 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.265551] mmc3: SDHCI controller on 219c000.usdhc [219c000.usdhc] using ADMA</t>
-  </si>
-  <si>
-    <t>[    3.274052] mmc2: queuing unknown CIS tuple 0x14 (0 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.279988] mxc_vpu 2040000.vpu_fsl: VPU initialized</t>
-  </si>
-  <si>
-    <t>[    3.289036] *** vpu_iauto_alloc_init: vpu_iauto_alloc_zone phys=0x76E00000, virt=0xCE000000</t>
-  </si>
-  <si>
-    <t>[    3.298022] mxc_vdoa 21e4000.vdoa: i.MX Video Data Order Adapter(VDOA) driver probed</t>
-  </si>
-  <si>
-    <t>[    3.306166] hidraw: raw HID events driver (C) Jiri Kosina</t>
-  </si>
-  <si>
-    <t>[    3.311927] usbcore: registered new interface driver usbhid</t>
-  </si>
-  <si>
-    <t>[    3.317523] usbhid: USB HID core driver</t>
-  </si>
-  <si>
-    <t>[    3.321899] ashmem: initialized</t>
-  </si>
-  <si>
-    <t>[    3.325342] logger: created 256K log 'log_main'</t>
-  </si>
-  <si>
-    <t>[    3.330188] logger: created 256K log 'log_events'</t>
-  </si>
-  <si>
-    <t>[    3.335128] mmc2: queuing unknown CIS tuple 0x80 (1 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.335148] logger: created 256K log 'log_radio'</t>
-  </si>
-  <si>
-    <t>[    3.335296] logger: created 256K log 'log_system'</t>
-  </si>
-  <si>
-    <t>[    3.335429] logger: created 256K log 'log_iauto_system'</t>
-  </si>
-  <si>
-    <t>[    3.335567] logger: created 256K log 'log_iauto_events'</t>
-  </si>
-  <si>
-    <t>[    3.335697] logger: created 256K log 'log_iauto_radio'</t>
-  </si>
-  <si>
-    <t>[    3.335835] logger: created 256K log 'log_iauto_main'</t>
-  </si>
-  <si>
-    <t>[    3.355816] oprofile: using arm/armv7-ca9</t>
-  </si>
-  <si>
-    <t>[    3.356649] NET: Registered protocol family 10</t>
-  </si>
-  <si>
-    <t>[    3.357584] NET: Registered protocol family 17</t>
-  </si>
-  <si>
-    <t>[    3.383824] mmc2: queuing unknown CIS tuple 0x81 (1 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.389407] mmc2: queuing unknown CIS tuple 0x82 (1 bytes)</t>
-  </si>
-  <si>
-    <t>[    3.394970] mmc2: new high speed SDIO card at address 0001</t>
-  </si>
-  <si>
-    <t>[    3.525065] mmc3: MAN_BKOPS_EN bit is not set</t>
-  </si>
-  <si>
-    <t>[    3.548746] mmc3: new DDR MMC card at address 0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    3.553965] mmcblk3: mmc3:0001 032G34 29.1 GiB </t>
-  </si>
-  <si>
-    <t>[    3.558630] mmcblk3boot0: mmc3:0001 032G34 partition 1 8.00 MiB</t>
-  </si>
-  <si>
-    <t>[    3.564719] mmcblk3boot1: mmc3:0001 032G34 partition 2 8.00 MiB</t>
-  </si>
-  <si>
-    <t>[    3.570787] mmcblk3rpmb: mmc3:0001 032G34 partition 3 4.00 MiB</t>
-  </si>
-  <si>
-    <t>[    3.579691]  mmcblk3: p1 p2 p3 p4 &lt; p5 p6 p7 p8 &gt;</t>
-  </si>
-  <si>
-    <t>[    3.612286] atmel_mxt_ts 0-004b: the hardware version is 1s</t>
-  </si>
-  <si>
-    <t>[    3.620328] [TOUCH]:build:0xab config version:(hex)02 information block:(hex)a4 28 10 ab 20 34 22 checksum:(hex)29 37 ee Time:(hex)2018-08-27</t>
-  </si>
-  <si>
-    <t>[    3.634989] [TOUCH]:(func:mxt_interrupt)receive response in 5s, jiffies: 4294937520.</t>
-  </si>
-  <si>
-    <t>[    3.640450] input: Atmel_mXT540E_TouchPanel as /devices/soc0/soc/2100000.aips-bus/21a0000.i2c/i2c-0/0-004b/input/input1</t>
-  </si>
-  <si>
-    <t>[    3.640718] input: Atmel_mXT540E_Key as /devices/soc0/soc/2100000.aips-bus/21a0000.i2c/i2c-0/0-004b/input/input2</t>
-  </si>
-  <si>
-    <t>[    3.642768] snvs_rtc 20cc000.snvs:snvs-rtc-lp: setting system clock to 1970-01-01 00:00:00 UTC (0)</t>
-  </si>
-  <si>
-    <t>[    3.652606] wlan-en-regulator: disabling</t>
-  </si>
-  <si>
-    <t>[    3.677269] Freeing unused kernel memory: 240K (80670000 - 806ac000)</t>
-  </si>
-  <si>
-    <t>[    3.685181] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:0.</t>
-  </si>
-  <si>
-    <t>[    3.694585] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:255 status:0.</t>
-  </si>
-  <si>
-    <t>[    3.703301] (!!) init: starting 'bootani'</t>
-  </si>
-  <si>
-    <t>[    3.707716] (!!) init: starting 'early_rvc'</t>
-  </si>
-  <si>
-    <t>[    3.712427] (!!) init: starting 'ueventd'</t>
-  </si>
-  <si>
-    <t>[    3.713563] (!!) early_rvc: Build time: Feb 15 2019-12:16:15</t>
-  </si>
-  <si>
-    <t>[    3.714888] (II) early_rvc: camera_category is 0</t>
-  </si>
-  <si>
-    <t>[    3.714896] (II) early_rvc: last connect = 0 current_connect = 0</t>
-  </si>
-  <si>
-    <t>[    3.733523] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    3.739244] (!!) init:   + process(async ldramfs2-extract) started</t>
-  </si>
-  <si>
-    <t>[    3.745622] (!!) init: executing '/sbin/ldramfs2'</t>
-  </si>
-  <si>
-    <t>[    3.759544] (!!) ldramfs2: Stage2.1 begin</t>
-  </si>
-  <si>
-    <t>[    3.840146] usb 1-1: new high-speed USB device number 2 using ci_hdrc</t>
-  </si>
-  <si>
-    <t>[    3.883645] (!!) bootani: The first picture is shown</t>
-  </si>
-  <si>
-    <t>[    3.889316] (!!) bootani: Tcon status is soc show</t>
-  </si>
-  <si>
-    <t>[    3.909816] (!!) bkdata: getcontrol: ACTIVE, counter=6</t>
-  </si>
-  <si>
-    <t>[    3.915103] (!!) bkdata: getcontrol: ACTIVE, counter=7</t>
-  </si>
-  <si>
-    <t>[    3.920568] (!!) bkdata: getcontrol: ACTIVE, counter=5</t>
-  </si>
-  <si>
-    <t>[    3.927385] (!!) contrast: Set contrast: 128</t>
-  </si>
-  <si>
-    <t>[    3.936239] (!!) bkdata: getcontrol: ACTIVE, counter=6</t>
-  </si>
-  <si>
-    <t>[    3.941537] (!!) bkdata: getcontrol: ACTIVE, counter=7</t>
-  </si>
-  <si>
-    <t>[    3.947068] (!!) bkdata: getcontrol: ACTIVE, counter=5</t>
-  </si>
-  <si>
-    <t>[    3.958661] (!!) chroma: Set chroma 0xc0004040</t>
-  </si>
-  <si>
-    <t>[    3.963814] ml86303 3-0038: ml86303_set_chroma: 64 64 1 1</t>
-  </si>
-  <si>
-    <t>[    3.973098] (!!) bkdata: getcontrol: ACTIVE, counter=6</t>
-  </si>
-  <si>
-    <t>[    3.978670] (!!) bkdata: getcontrol: ACTIVE, counter=7</t>
-  </si>
-  <si>
-    <t>[    3.987662] (!!) bkdata: getcontrol: ACTIVE, counter=5</t>
-  </si>
-  <si>
-    <t>[    3.995394] (!!) backlight: Set backlight: 130</t>
-  </si>
-  <si>
-    <t>[    4.001604] (!!) bootani: cpio size shrinked(cur_pos=112465608 magic=?????? namesize=0 datasize=0), the boot animation image has some useless data!</t>
-  </si>
-  <si>
-    <t>[    4.024120] usb-storage 1-1:1.0: USB Mass Storage device detected</t>
-  </si>
-  <si>
-    <t>[    4.036333] scsi host0: usb-storage 1-1:1.0</t>
-  </si>
-  <si>
-    <t>[    4.261609] (!!) ldramfs2: Stage2.2 begin</t>
-  </si>
-  <si>
-    <t>[    4.340601] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.370798] (!!) init: executing '/sbin/linux_crash_dump'</t>
-  </si>
-  <si>
-    <t>[    4.381179] (II) linuxcrashdump: main() start Dump</t>
-  </si>
-  <si>
-    <t>[    4.387350] (II) linuxcrashdump: main() /proc/linux_crash_dump  not exist  do nothing ==</t>
-  </si>
-  <si>
-    <t>[    4.397388] (!!) init: executed '/sbin/linux_crash_dump' exited</t>
-  </si>
-  <si>
-    <t>[    4.405002] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.405268] (!!) init:   + process(async system-mount) started</t>
-  </si>
-  <si>
-    <t>[    4.418044] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.423775] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.429296] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.436605] (!!) init:   + process(async var-mount) started</t>
-  </si>
-  <si>
-    <t>[    4.453602] EXT4-fs (mmcblk3p1): mounted filesystem with ordered data mode. Opts: (null)</t>
-  </si>
-  <si>
-    <t>[    4.455533] loop: module loaded</t>
-  </si>
-  <si>
-    <t>[    4.455714] (!!) init: processing action 0xe3f98 (early-init)</t>
-  </si>
-  <si>
-    <t>[    4.455736] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.455791] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.474067] (!!) ldramfs2: grandson normal to exit</t>
-  </si>
-  <si>
-    <t>[    4.480593] (!!) ldramfs2: normal to exit</t>
-  </si>
-  <si>
-    <t>[    4.480690] (!!) ldramfs2: child normal to exit</t>
-  </si>
-  <si>
-    <t>[    4.481369] (!!) init: executed '/sbin/ldramfs2' exited</t>
-  </si>
-  <si>
-    <t>[    4.481594] (!!) init:   + process(async ldramfs2-extract) exited</t>
-  </si>
-  <si>
-    <t>[    4.481943] galcore: clk_get vg clock failed, disable vg!</t>
-  </si>
-  <si>
-    <t>[    4.482145] Galcore version 5.0.11.41671</t>
-  </si>
-  <si>
-    <t>[    4.515914] (!!) init:   + process(async system-mount) exited</t>
-  </si>
-  <si>
-    <t>[    4.550263] softdog: Software Watchdog Timer: 0.08 initialized. soft_noboot=0 soft_margin=60 sec soft_panic=0 (nowayout=1)</t>
-  </si>
-  <si>
-    <t>[    4.561450] (!!) init: processing action 0xe57d8 (wait_for_coldboot_done)</t>
-  </si>
-  <si>
-    <t>[    4.568324] (!!) init: processing action 0xe5820 (property_init)</t>
-  </si>
-  <si>
-    <t>[    4.574725] (!!) init: processing action 0xe5868 (keychord_init)</t>
-  </si>
-  <si>
-    <t>[    4.580806] (!!) init: processing action 0xe58b0 (console_init)</t>
-  </si>
-  <si>
-    <t>[    4.587035] (!!) init: processing action 0xe58f8 (set_init_properties)</t>
-  </si>
-  <si>
-    <t>[    4.593914] (!!) init: processing action 0xded80 (init)</t>
-  </si>
-  <si>
-    <t>[    4.600147] (EE) init: command 'mkdir /data 0771 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    4.608446] (EE) init: command 'write /dev/cpuctl/cpu.shares 1024', r=-22</t>
-  </si>
-  <si>
-    <t>[    4.616022] (EE) init: command 'write /dev/cpuctl/naviserver/cpu.rt_runtime_us 500000', r=-22</t>
-  </si>
-  <si>
-    <t>[    4.625095] (!!) init: processing action 0xe40c8 (init)</t>
-  </si>
-  <si>
-    <t>[    4.630513] (!!) init: processing action 0xe41a8 (fs)</t>
-  </si>
-  <si>
-    <t>[    4.635607] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.640901] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.646549] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.646978] (!!) init:   + process(async modules-core-load) started</t>
-  </si>
-  <si>
-    <t>[    4.667600] EXT4-fs (mmcblk3p2): recovery complete</t>
-  </si>
-  <si>
-    <t>[    4.673739] EXT4-fs (mmcblk3p2): mounted filesystem with ordered data mode. Opts: nodelalloc,journal_checksum</t>
-  </si>
-  <si>
-    <t>[    4.674825] drivers/misc/iram.c:iram_of_probe:278 mmap!</t>
-  </si>
-  <si>
-    <t>[    4.689454] (!!) init:   + process(async var-mount) exited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    4.690353] SCSI Media Changer driver v0.25 </t>
-  </si>
-  <si>
-    <t>[    4.724899] (!!) init:   + process(async modules-core-load) exited</t>
-  </si>
-  <si>
-    <t>[    4.758297] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.764514] (EE) init: command 'mkdir /var/property 0700 root root', r=-17</t>
-  </si>
-  <si>
-    <t>[    4.771447] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.776615] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.781720] (!!) init: processing action 0xe5940 (property_service_init)</t>
-  </si>
-  <si>
-    <t>[    4.793755] (!!) init: processing action 0xe5988 (signal_init)</t>
-  </si>
-  <si>
-    <t>[    4.799687] (!!) init: waitpid returned pid 64, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    4.805849] (!!) init: waitpid returned pid 74, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    4.812001] (!!) init: waitpid returned pid 75, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    4.818124] (!!) init: waitpid returned pid 82, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    4.824268] (!!) init: processing action 0xe59d0 (check_startup)</t>
-  </si>
-  <si>
-    <t>[    4.830306] (!!) init: processing action 0xdfb90 (post-fs)</t>
-  </si>
-  <si>
-    <t>[    4.836169] (EE) init: command 'mkdir /var/run 0777 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    4.843814] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    4.848999] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    4.854049] (!!) init: starting 'servicemanager'</t>
-  </si>
-  <si>
-    <t>[    4.859066] (!!) init: starting 'vold'</t>
-  </si>
-  <si>
-    <t>[    4.863358] (!!) init: starting 'crashreporter'</t>
-  </si>
-  <si>
-    <t>[    4.868312] (!!) init: starting 'logd'</t>
-  </si>
-  <si>
-    <t>[    4.874671] (!!) init: starting 'errd'</t>
-  </si>
-  <si>
-    <t>[    4.878947] (!!) init: starting 'sysd'</t>
-  </si>
-  <si>
-    <t>[    4.884675] (!!) init: starting 'wliautoserver'</t>
-  </si>
-  <si>
-    <t>[    4.889802] (!!) init: starting 'Opening'</t>
-  </si>
-  <si>
-    <t>[    4.905722] (!!) init: starting 'btd'</t>
-  </si>
-  <si>
-    <t>[    4.926623] (!!) init: starting 'VehicleServer'</t>
-  </si>
-  <si>
-    <t>[    4.951137] (!!) init: starting 'sysupdatemanager'</t>
-  </si>
-  <si>
-    <t>[    4.956681] (!!) init: processing action 0xe4450 (post-fs)</t>
-  </si>
-  <si>
-    <t>[    4.967494] (!!) init: processing action 0xe0fe8 (post-fs-data)</t>
-  </si>
-  <si>
-    <t>[    4.978238] (!!) init:   + process(async data-mount) started</t>
-  </si>
-  <si>
-    <t>[    4.986082] (!!) init: command(retry 10) 'check' begin</t>
-  </si>
-  <si>
-    <t>[    5.018078] random: sysd urandom read with 21 bits of entropy available</t>
-  </si>
-  <si>
-    <t>[    5.043800] scsi 0:0:0:0: Direct-Access     Generic  Flash Disk       8.07 PQ: 0 ANSI: 4</t>
-  </si>
-  <si>
-    <t>[    5.059607] sd 0:0:0:0: [sda] 15564800 512-byte logical blocks: (7.96 GB/7.42 GiB)</t>
-  </si>
-  <si>
-    <t>[    5.070184] sd 0:0:0:0: [sda] Write Protect is off</t>
-  </si>
-  <si>
-    <t>[    5.076197] sd 0:0:0:0: [sda] Write cache: disabled, read cache: enabled, doesn't support DPO or FUA</t>
-  </si>
-  <si>
-    <t>[    5.100899]  sda: sda1</t>
-  </si>
-  <si>
-    <t>[    5.116559] sd 0:0:0:0: [sda] Attached SCSI removable disk</t>
-  </si>
-  <si>
-    <t>[    5.151237] NHSysCtrl:Set Boot Media :1 to Share memory OK in SetBSPData()</t>
-  </si>
-  <si>
-    <t>[    5.159775] NHSysCtrl:Set BMode :0 to Share memory OK in SetBSPData()</t>
-  </si>
-  <si>
-    <t>[    5.166503] NHSysCtrl:Set Active Kernel :0 to Share memory OK in SetBSPData()</t>
-  </si>
-  <si>
-    <t>[    5.175174] NHSysCtrl:Set Active Ramdisk :0 to Share memory OK in SetBSPData()</t>
-  </si>
-  <si>
-    <t>[    5.182862] NHSysCtrl:start timer(NH_SYSCTRL_TIMER_WAIT_PARTITION_MOUNT)</t>
-  </si>
-  <si>
-    <t>[    5.260829] NHTestHandler:OnInitialize</t>
-  </si>
-  <si>
-    <t>[    5.286255] NHuCom:sysd start === EndConeChk() OK, Model1(ProjectSeries): 10, Model2(Region): 20, Model3(Product): 01[    5.294181] input: virtual keyboard as /devices/virtual/input/input3</t>
-  </si>
-  <si>
-    <t>[    5.294709] input: virtual wire keyboard as /devices/virtual/input/input4</t>
-  </si>
-  <si>
-    <t>[    5.295201] input: virtual remocon keyboard as /devices/virtual/input/input5</t>
-  </si>
-  <si>
-    <t>[    5.305922] NHTestHandler:OnStart</t>
-  </si>
-  <si>
-    <t>[    5.320889] NHTestHandler:OnRun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.320890] </t>
-  </si>
-  <si>
-    <t>[    5.325656] NHuCom:BootStatus: 04, DVDType: 00, TunerType: 10, DTVType: 00, AUXType: 01, TmcRticType: 00</t>
-  </si>
-  <si>
-    <t>[    5.335327] NHuCom:uComProjNo: 10, uComCheckSum: 0000, MiconBootInfo: 00, AbnormalStaus: 00[    5.340325] NHSysCtrl:SetTouchKeyBacklightBrightness(200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.349016] </t>
-  </si>
-  <si>
-    <t>[    5.350790] NHSysCtrl:StartCom(bResult:1, dwNaviID:102001, dwBootStatus:80)</t>
-  </si>
-  <si>
-    <t>[    5.357851] NHSysCtrl:[StartCom] set system time from micon 2016/01/01 08:44:17</t>
-  </si>
-  <si>
-    <t>[    5.365842] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:8.</t>
-  </si>
-  <si>
-    <t>[    5.375033] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:255 status:8.</t>
-  </si>
-  <si>
-    <t>[    5.393417] NHuCom:recieve sys uCom version: 30 31 2e 31 38[    5.393872] NHSysCtrl:NHSysCtrlMdlMain::StartCom() -- &gt; CheckStartSeq(4)</t>
-  </si>
-  <si>
-    <t>[    5.393909] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0xb,m_dwMdlMainMode:0x2</t>
-  </si>
-  <si>
-    <t>[    5.393992] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0xb</t>
-  </si>
-  <si>
-    <t>[    5.395940] NHSysCtrl:NHSysCtrlMdlMain::SetPathEnd(VOID) ---- CheckStartSeq(4)</t>
-  </si>
-  <si>
-    <t>[    5.395976] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0x8b,m_dwMdlMainMode:0x2</t>
-  </si>
-  <si>
-    <t>[    5.396051] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x8b</t>
-  </si>
-  <si>
-    <t>[    5.399483] NHSysCtrl:SetProductInfoEnd ==&gt; CheckStartSeq(4)</t>
-  </si>
-  <si>
-    <t>[    5.399519] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0x9b,m_dwMdlMainMode:0x2</t>
-  </si>
-  <si>
-    <t>[    5.399597] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x9b</t>
-  </si>
-  <si>
-    <t>[    5.399930] NHSysCtrl:SetInfoFixedDiskEnd ==&gt; CheckStartSeq(4)</t>
-  </si>
-  <si>
-    <t>[    5.399963] NHSysCtrl:CheckStartSeq(mediaID:4),m_dwStartStatus:0x19b,m_dwMdlMainMode:0x2</t>
-  </si>
-  <si>
-    <t>[    5.400085] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:4),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x19b</t>
-  </si>
-  <si>
-    <t>[    5.400124] NHSysCtrl:CheckStartSeq --&gt;first --&gt;CheckUpdateKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB)</t>
-  </si>
-  <si>
-    <t>[    5.400956] NHSysCtrl:CheckStartSeq --&gt;first --&gt;CheckUpdateKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.401729] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckUpdateKey(NH_SYSCTRL_CKKEY_MEDIA_ID_SDCARD) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.402744] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckTestModeKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB) </t>
-  </si>
-  <si>
-    <t>[    5.402831] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.402988] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckTestModeKey(NH_SYSCTRL_CKKEY_MEDIA_ID_USB2) </t>
-  </si>
-  <si>
-    <t>[    5.403059] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.403203] NHSysCtrl:CheckStartSeq --&gt;then --&gt;CheckTestModeKey(NH_SYSCTRL_CKKEY_MEDIA_ID_SDCARD) </t>
-  </si>
-  <si>
-    <t>[    5.403264] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
-  </si>
-  <si>
-    <t>[    5.403402] NHSysCtrl:Check TestMode.key in sdcard failed</t>
-  </si>
-  <si>
-    <t>[    5.542817] EXT4-fs (mmcblk3p3): recovery complete</t>
-  </si>
-  <si>
-    <t>[    5.547155] EXT4-fs (mmcblk3p3): mounted filesystem with ordered data mode. Opts: nodelalloc,journal_checksum</t>
-  </si>
-  <si>
-    <t>[    5.564692] EXT4-fs (mmcblk3p5): mounted filesystem with ordered data mode. Opts: (null)</t>
-  </si>
-  <si>
-    <t>[    5.571716] EXT4-fs (mmcblk3p6): mounted filesystem with ordered data mode. Opts: (null)</t>
-  </si>
-  <si>
-    <t>[    5.584930] EXT4-fs (mmcblk3p7): recovery complete</t>
-  </si>
-  <si>
-    <t>[    5.585123] EXT4-fs (mmcblk3p7): mounted filesystem with ordered data mode. Opts: nodelalloc,journal_checksum</t>
-  </si>
-  <si>
-    <t>[    5.585505] (!!) init:   + process(async data-mount) exited</t>
-  </si>
-  <si>
-    <t>[    5.585933] (!!) init: waitpid returned pid 103, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    5.585982] (!!) init: command(retry 10) 'check' r=0</t>
-  </si>
-  <si>
-    <t>[    5.586745] (EE) init: command 'mkdir /data/dontpanic', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.587897] (EE) init: command 'mkdir /data/misc 01771 system misc', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.588368] (EE) init: command 'mkdir /data/misc/bluetoothd 0770 bluetooth bluetooth', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.588409] (EE) init: command 'mkdir /data/misc/bluetooth 0770 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.588443] (EE) init: command 'mkdir /data/misc/keystore 0700 keystore keystore', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.588480] (EE) init: command 'mkdir /data/misc/vpn 0770 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.588513] (EE) init: command 'mkdir /data/misc/systemkeys 0700 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.588910] (EE) init: command 'mkdir /data/misc/vpn/profiles 0770 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.589454] (EE) init: command 'chmod 0775 /system/etc/dhcpcd/dhcpcd-run-hooks', r=-30</t>
-  </si>
-  <si>
-    <t>[    5.589501] (EE) init: command 'mkdir /data/local 0771 shell shell', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.589868] (EE) init: command 'mkdir /data/local/tmp 0771 shell shell', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.589908] (EE) init: command 'mkdir /data/data 0771 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.589946] (EE) init: command 'mkdir /data/app 0771 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.589975] (EE) init: command 'chown root root /data/lost+found', r=-2</t>
-  </si>
-  <si>
-    <t>[    5.589991] (EE) init: command 'chmod 0770 /data/lost+found', r=-2</t>
-  </si>
-  <si>
-    <t>[    5.590104] (EE) init: command 'mkdir /data/apps 0751 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.590149] (EE) init: command 'mkdir /data/database 0751 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.591096] (EE) init: command 'mkdir /data/user 0751 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.591123] (!!) init: processing action 0xe4538 (early-boot)</t>
-  </si>
-  <si>
-    <t>[    5.592094] (!!) init: processing action 0xe1418 (boot)</t>
-  </si>
-  <si>
-    <t>[    5.592340] (EE) init: command 'mkdir /data/system 0775 system system', r=-17</t>
-  </si>
-  <si>
-    <t>[    5.592442] (!!) init: starting 'packagemanager'</t>
-  </si>
-  <si>
-    <t>[    5.592792] (!!) init: starting 'AppServer'</t>
-  </si>
-  <si>
-    <t>[    5.593751] (!!) init: starting 'SystemServer'</t>
-  </si>
-  <si>
-    <t>[    5.594511] (!!) init: starting 'CameraServer'</t>
-  </si>
-  <si>
-    <t>[    5.595478] (!!) init: starting 'RVCServer'</t>
-  </si>
-  <si>
-    <t>[    5.595832] (!!) init: starting 'probeserver'</t>
-  </si>
-  <si>
-    <t>[    5.596173] (!!) init: starting 'audioserver'</t>
-  </si>
-  <si>
-    <t>[    5.596507] (!!) init: starting 'mediaparser'</t>
-  </si>
-  <si>
-    <t>[    5.596829] (!!) init: starting 'mediacarlife'</t>
-  </si>
-  <si>
-    <t>[    5.597198] (!!) init: starting 'mpserver'</t>
-  </si>
-  <si>
-    <t>[    5.597542] (!!) init: starting 'ttsmain-navi'</t>
-  </si>
-  <si>
-    <t>[    5.597929] (!!) init: starting 'voicerecog'</t>
-  </si>
-  <si>
-    <t>[    5.598287] (!!) init: starting 'mediaserver'</t>
-  </si>
-  <si>
-    <t>[    5.598627] (!!) init: starting 'mediabrowser'</t>
-  </si>
-  <si>
-    <t>[    5.598985] (!!) init: starting 'mediaipod'</t>
-  </si>
-  <si>
-    <t>[    5.599404] (!!) init: starting 'mediabtaudio'</t>
-  </si>
-  <si>
-    <t>[    5.599743] (!!) init: starting 'mediatuner'</t>
-  </si>
-  <si>
-    <t>[    5.600175] (!!) init: starting 'mediadvd'</t>
-  </si>
-  <si>
-    <t>[    5.600506] (!!) init: starting 'MeterServer'</t>
-  </si>
-  <si>
-    <t>[    5.640964] (!!) init: starting 'WidgetServer'</t>
-  </si>
-  <si>
-    <t>[    5.647199] (!!) init:   + process(async modules-net-load) waiting to be activated</t>
-  </si>
-  <si>
-    <t>[    5.647710] (!!) init: starting 'netd'</t>
-  </si>
-  <si>
-    <t>[    5.648049] (!!) init: starting 'carworld'</t>
-  </si>
-  <si>
-    <t>[    5.648391] (!!) init: processing action 0xe4648 (boot)</t>
-  </si>
-  <si>
-    <t>[    5.648469] (!!) init: processing action 0xe5a18 (queue_propety_triggers)</t>
-  </si>
-  <si>
-    <t>[    5.648566] (!!) init: processing action 0xdff98 (property:sys.usb.config=none)</t>
-  </si>
-  <si>
-    <t>[    5.648675] (EE) init: command 'write /sys/class/android_usb/android0/enable 0', r=-2</t>
-  </si>
-  <si>
-    <t>[    5.648705] (EE) init: command 'write /sys/class/android_usb/android0/bDeviceClass 0', r=-2</t>
-  </si>
-  <si>
-    <t>[    5.648753] (!!) init: processing action 0xe1858 (property:ro.debuggable=1)</t>
-  </si>
-  <si>
-    <t>[    5.648777] (!!) init: starting 'console'</t>
-  </si>
-  <si>
-    <t>[    5.660294] (!!) init:   + process(async modules-audio-load) waiting to be activated</t>
-  </si>
-  <si>
-    <t>[    5.660325] (!!) init:   + process(async modules-audio-load) started</t>
-  </si>
-  <si>
-    <t>[    5.690303] NHKeyHandler:[run] open all input device success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    5.970102] </t>
-  </si>
-  <si>
-    <t>[    5.970630] NHuCom:recieve Sys Boot version: 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>[    5.970914] NHuCom:Receive Amigo program version: 45 30 31 30 30 32 30 44</t>
-  </si>
-  <si>
-    <t>[    5.971083] NHuCom:Receive Amigo data version: 30 31 30 30 30 30 45 30</t>
-  </si>
-  <si>
-    <t>[    5.973494] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:10.</t>
-  </si>
-  <si>
-    <t>[    5.975366] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:0.</t>
-  </si>
-  <si>
-    <t>[    5.990964] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
-  </si>
-  <si>
-    <t>[    6.007186] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
-  </si>
-  <si>
-    <t>[    6.025751] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
-  </si>
-  <si>
-    <t>[    6.046120] NHuCom:CheckNextVersion() == get all version finished,m_dwVerRcv:0x63, m_bVerRes:0</t>
-  </si>
-  <si>
-    <t>[    6.158109] fsl-asrc 2034000.asrc: driver registered</t>
-  </si>
-  <si>
-    <t>uid=0 gid=1007@nutshell:/ # [    6.389898] imx-mic_adc sound_mic_adc: mic_adc &lt;-&gt; 2030000.ssi mapping ok</t>
-  </si>
-  <si>
-    <t>[    6.456133] [TC:5066][TT:55] [Opening] [Opening Caution] chechBootAnimEnd start</t>
-  </si>
-  <si>
-    <t>[    6.556731] (II) early_rvc: Get sig=15</t>
-  </si>
-  <si>
-    <t>[    6.562547] (!!) init: waitpid returned pid 61, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    6.562817] ml86303 3-0038: ioctl_s_ctrl: RVCServer(238) request switch channel 0 --&gt; 0</t>
-  </si>
-  <si>
-    <t>[    6.562883] ml86303 3-0038: ml86303_set_sleep_mode: 1</t>
-  </si>
-  <si>
-    <t>[    6.584655] (!!) init: process 'early_rvc', pid 61 exited</t>
-  </si>
-  <si>
-    <t>[    7.139045] random: nonblocking pool is initialized</t>
-  </si>
-  <si>
-    <t>[    7.234816] imx-softec_bt sound_bt: softec_bt &lt;-&gt; 202c000.ssi mapping ok</t>
-  </si>
-  <si>
-    <t>[    7.268534] NHSysCtrl:check partition system OK</t>
-  </si>
-  <si>
-    <t>[    7.273353] NHSysCtrl:check partition var OK</t>
-  </si>
-  <si>
-    <t>[    7.277838] NHSysCtrl:check partition data OK</t>
-  </si>
-  <si>
-    <t>[    7.282536] NHSysCtrl:check partition vdata OK</t>
-  </si>
-  <si>
-    <t>[    7.287149] NHSysCtrl:check partition meixingapl OK</t>
-  </si>
-  <si>
-    <t>[    7.292951] NHSysCtrl:check partition meixingmap OK</t>
-  </si>
-  <si>
-    <t>[    7.365130] imx-mn103sw20 sound_media: mn103sw20 &lt;-&gt; 2024000.esai mapping ok</t>
-  </si>
-  <si>
-    <t>[    7.517179] usbcore: registered new interface driver snd-usb-audio</t>
-  </si>
-  <si>
-    <t>[    7.538414] ******************  NQLoadSystemLibraries begin</t>
-  </si>
-  <si>
-    <t>[    7.558900] (!!) init:   + process(async modules-audio-load) exited</t>
-  </si>
-  <si>
-    <t>[    7.587730] (!!) init: waitpid returned pid 232, status = 00000000</t>
-  </si>
-  <si>
-    <t>[    7.852951] ******************  NQLoadSystemLibraries end</t>
-  </si>
-  <si>
-    <t>[    7.861433] ******************  open libAppLaunch APPLAUNCHER_SO begin</t>
-  </si>
-  <si>
-    <t>[    8.034116] ******************  open libAppLaunch end</t>
-  </si>
-  <si>
-    <t>[    8.039717] ******************  openplugin APPLAUNCHER_PLAGIN begin</t>
-  </si>
-  <si>
-    <t>[    8.088575] [TC:6698][TT:64] [Opening] [Opening Caution] chechBootAnimEnd end</t>
-  </si>
-  <si>
-    <t>[    8.098977] [TC:6708][TT:72] [Opening] [Opening Caution] before shown</t>
-  </si>
-  <si>
-    <t>[    8.144565] (!!) init: starting 'wlDriver'</t>
-  </si>
-  <si>
-    <t>[    8.198861] [TC:6808][TT:0] [SystemService] check Env.</t>
-  </si>
-  <si>
-    <t>[    8.253341] [TC:6863][TT:5] [SystemService] start setting.</t>
-  </si>
-  <si>
-    <t>[    8.417897] ******************  openplugin end</t>
-  </si>
-  <si>
-    <t>[    8.614672] [TC:7224][TT:146] [Opening] [Opening Caution] shown</t>
-  </si>
-  <si>
-    <t>[    8.701355] [TC:7311][TT:2] [SystemService] notify service ready [ttsmain-navi]</t>
-  </si>
-  <si>
-    <t>[    8.802189] (!!) init: waitpid returned pid 929, status = 00007f00</t>
-  </si>
-  <si>
-    <t>[    8.809771] (EE) init: untracked pid 929 exited</t>
-  </si>
-  <si>
-    <t>[    9.298687] [TC:7908][TT:235] [SystemService] boot completed.</t>
-  </si>
-  <si>
-    <t>[    9.313371] [TC:7923][TT:241] [SystemService] start lazy service by App [naviserver]</t>
-  </si>
-  <si>
-    <t>[    9.337427] (!!) init: starting 'naviserver'</t>
-  </si>
-  <si>
-    <t>[    9.343068] [TC:7953][TT:0] [SystemService] notify AplReady.</t>
-  </si>
-  <si>
-    <t>[    9.513103] NHSysCtrl:SetBacklightBrightness(130)</t>
-  </si>
-  <si>
-    <t>[    9.775904] wlan: loading driver v4.0.11.203</t>
-  </si>
-  <si>
-    <t>[    9.866504] mmc2: queuing unknown CIS tuple 0x01 (3 bytes)</t>
-  </si>
-  <si>
-    <t>[    9.888327] mmc2: queuing unknown CIS tuple 0x1a (5 bytes)</t>
-  </si>
-  <si>
-    <t>[    9.898702] mmc2: queuing unknown CIS tuple 0x1b (8 bytes)</t>
-  </si>
-  <si>
-    <t>[    9.906867] mmc2: queuing unknown CIS tuple 0x14 (0 bytes)</t>
-  </si>
-  <si>
-    <t>[    9.926360] hifDeviceInserted: Dumping clocks (50000000,198000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    9.934503] HIFDumpCCCR 0(43) 1(3) 2(0) 3(0) 4(0) 5(0) 6(0) 7(6) 8(17) 9(0) A(10) B(0) C(0) D(0) E(0) F(0) 10(0) 11(0) 12(1) 13(3) 14(7) 15(0) 16(1) </t>
-  </si>
-  <si>
-    <t>[    9.953434] AR6000: Set async interrupt delay clock as 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[    9.991802] AR6000: configuration opcode 3 is not used for Linux SDIO stack </t>
-  </si>
-  <si>
-    <t>[   10.001079] NUM_DEV=1 FWMODE=0x2 FWSUBMODE=0x0 FWBR_BUF 0</t>
-  </si>
-  <si>
-    <t>[   10.017847] ol_download_firmware: Using 0x1234 for the remainder of init</t>
-  </si>
-  <si>
-    <t>[   10.029450] NHSysCtrl:SetScreenContrast(128)</t>
-  </si>
-  <si>
-    <t>[   10.096175] ml86303 3-0038: ml86303_set_chroma: 64 64 1 1</t>
-  </si>
-  <si>
-    <t>[   10.156827] __ol_transfer_bin_file: Failed to get bdwlan30.b00</t>
-  </si>
-  <si>
-    <t>[   10.164734] __ol_transfer_bin_file: Trying to load default bdwlan30.bin</t>
-  </si>
-  <si>
-    <t>[   10.181897] Board extended Data download address: 0x0</t>
-  </si>
-  <si>
-    <t>[   10.207227] __ol_transfer_bin_file: Loading setup file qsetup30.bin</t>
-  </si>
-  <si>
-    <t>[   10.238231] __ol_transfer_bin_file: Failed to get qsetup30.bin</t>
-  </si>
-  <si>
-    <t>[   11.260627] HIF Interrupt processing is SYNC ONLY</t>
-  </si>
-  <si>
-    <t>[   11.265575] AR6000: configuration opcode 7 is only used for RTOS systems, not Linux systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   11.274505] AR6000: configuration opcode 5 is not used for Linux SDIO stack </t>
-  </si>
-  <si>
-    <t>[   11.282225] ol_if_dfs_attach: called; ptr=a5519c1c, radar_info=ab843a0c</t>
-  </si>
-  <si>
-    <t>[   11.290592] +HWT</t>
-  </si>
-  <si>
-    <t>[   11.293181] -HWT</t>
-  </si>
-  <si>
-    <t>[   11.296055] MAILBOX SWAP Service is enabled!</t>
-  </si>
-  <si>
-    <t>[   11.303224] Reduced Tx Complete service is enabled!</t>
-  </si>
-  <si>
-    <t>[   11.313051] is_full_reorder_offloaded? 0</t>
-  </si>
-  <si>
-    <t>[   11.321690] HTC Service:0x0300 ep:1 TX flow control disabled</t>
-  </si>
-  <si>
-    <t>[   11.329249] TXRX: page_divider 0x6, offset_filter 0x3f num elem 4800, ol desc num page 75, ol desc per page 64</t>
-  </si>
-  <si>
-    <t>[   11.346198] __wmi_control_rx: Unhandled WMI event 3</t>
-  </si>
-  <si>
-    <t>[   11.352038] __wmi_control_rx: WMI UNIFIED SERVICE READY event</t>
-  </si>
-  <si>
-    <t>[   11.371226] __wmi_control_rx:  WMI UNIFIED READY event</t>
-  </si>
-  <si>
-    <t>[   11.381293] __wmi_control_rx : event handler is not registered: event id 0x1d019</t>
-  </si>
-  <si>
-    <t>[   11.382287] cfg80211: Regulatory domain changed to country: US</t>
-  </si>
-  <si>
-    <t>[   11.382294] cfg80211:  DFS Master region: FCC</t>
-  </si>
-  <si>
-    <t>[   11.382294] cfg80211:   (start_freq - end_freq @ bandwidth), (max_antenna_gain, max_eirp), (dfs_cac_time)</t>
-  </si>
-  <si>
-    <t>[   11.382302] cfg80211:   (2402000 KHz - 2472000 KHz @ 40000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.382306] cfg80211:   (5170000 KHz - 5250000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.382311] cfg80211:   (5250000 KHz - 5330000 KHz @ 80000 KHz), (N/A, 300 mBm), (0 s)</t>
-  </si>
-  <si>
-    <t>[   11.382316] cfg80211:   (5490000 KHz - 5600000 KHz @ 80000 KHz), (N/A, 300 mBm), (0 s)</t>
-  </si>
-  <si>
-    <t>[   11.382321] cfg80211:   (5650000 KHz - 5710000 KHz @ 40000 KHz), (N/A, 300 mBm), (0 s)</t>
-  </si>
-  <si>
-    <t>[   11.382325] cfg80211:   (5710000 KHz - 5835000 KHz @ 80000 KHz), (N/A, 300 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.382330] cfg80211:   (57240000 KHz - 63720000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.467579] Host SW:4.0.11.203, FW:2.0.0.140, HW:QCA6174_REV3_2</t>
-  </si>
-  <si>
-    <t>[   11.475107] ol_pktlog_init: pktlogmod_init successfull</t>
-  </si>
-  <si>
-    <t>[   11.482063] target uses HTT version 3.48; host uses 3.28</t>
-  </si>
-  <si>
-    <t>[   11.482895] ath_hif_sdio: HIF (Atheros/multi-bss)</t>
-  </si>
-  <si>
-    <t>[   11.482901] wlan: driver loaded in 1710000</t>
-  </si>
-  <si>
-    <t>[   11.484857] IPv6: ADDRCONF(NETDEV_UP): wlan0: link is not ready</t>
-  </si>
-  <si>
-    <t>[   11.502214] *** Warning: host/target HTT versions are different, though compatible!</t>
-  </si>
-  <si>
-    <t>[   11.511330] (!!) init: starting 'wpa_supplicant'</t>
-  </si>
-  <si>
-    <t>[   11.616180] IPv6: ADDRCONF(NETDEV_UP): p2p0: link is not ready</t>
-  </si>
-  <si>
-    <t>[   11.721262] cfg80211: Regulatory domain changed to country: CN</t>
-  </si>
-  <si>
-    <t>[   11.729691] cfg80211:  DFS Master region: unset</t>
-  </si>
-  <si>
-    <t>[   11.762815] cfg80211:   (start_freq - end_freq @ bandwidth), (max_antenna_gain, max_eirp), (dfs_cac_time)</t>
-  </si>
-  <si>
-    <t>[   11.789545] cfg80211:   (2402000 KHz - 2482000 KHz @ 40000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.798473] cfg80211:   (5150000 KHz - 5250000 KHz @ 80000 KHz), (N/A, 600 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.808239] cfg80211:   (5250000 KHz - 5350000 KHz @ 80000 KHz), (N/A, 600 mBm), (0 s)</t>
-  </si>
-  <si>
-    <t>[   11.818842] cfg80211:   (5725000 KHz - 5850000 KHz @ 80000 KHz), (N/A, 600 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.832986] cfg80211:   (5735000 KHz - 5835000 KHz @ 80000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.843396] cfg80211:   (57240000 KHz - 59400000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.854740] cfg80211:   (59400000 KHz - 63720000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   11.866608] cfg80211:   (63720000 KHz - 65880000 KHz @ 2160000 KHz), (N/A, 0 mBm), (N/A)</t>
-  </si>
-  <si>
-    <t>[   12.354911] (!!) init: waitpid returned pid 245, status = 0000000b</t>
-  </si>
-  <si>
-    <t>[   12.365977] (!!) init: process 'voicerecog', pid 245 exited</t>
-  </si>
-  <si>
-    <t>[   12.373773] (!!) init: process 'voicerecog' killing any children in process group</t>
-  </si>
-  <si>
-    <t>[   12.389342] (!!) init: starting 'voicerecog'</t>
-  </si>
-  <si>
-    <t>[   13.025063] FAT-fs (sda1): Volume was not properly unmounted. Some data may be corrupt. Please run fsck.</t>
-  </si>
-  <si>
-    <t>[   13.051382] NHSysCtrl:CheckStartSeq(mediaID:0),m_dwStartStatus:0x19b,m_dwMdlMainMode:0x2</t>
-  </si>
-  <si>
-    <t>[   13.059971] NHSysCtrl:get bootmode from NHSysInfo OK in CheckStartSeq(mediaID:0),bRet:1,sBootMode.Flg:1,sBootMode.BootMode:0,m_dwStartStatus:0x19b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   13.086424] NHSysCtrl:CheckStartSeq  --&gt;CheckUpdateKey(eMedia:0) </t>
-  </si>
-  <si>
-    <t>[   13.105327] NHSysCtrl:Get  bootmode:0 from NHSysInfo in CheckTestModeKey()</t>
-  </si>
-  <si>
-    <t>[   13.115171] NHSysCtrl:CheckStartSeq  --&gt;CheckTestModeKey(eMedia:0) not find TESTMODE.KEY</t>
-  </si>
-  <si>
-    <t>[   14.224621] (!!) init: service 'bootani' is being stopped</t>
-  </si>
-  <si>
-    <t>[   14.234518] (!!) bootani: signal to exit</t>
-  </si>
-  <si>
-    <t>[   14.281060] (!!) init: service 'bootani' is being stopped</t>
-  </si>
-  <si>
-    <t>[   14.287017] (!!) init: waitpid returned pid 60, status = 00000000</t>
-  </si>
-  <si>
-    <t>[   14.293591] (!!) init: process 'bootani', pid 60 exited</t>
-  </si>
-  <si>
-    <t>[   15.385314] [TOUCH]:(func:mxt_interrupt)receive response in 5s, jiffies: 4294938695.</t>
-  </si>
-  <si>
-    <t>[   15.395132] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:10.</t>
-  </si>
-  <si>
-    <t>[   15.404933] [TOUCH]:(func:touch_data_hanldle)Get unhandled report id:1 status:0.</t>
-  </si>
-  <si>
-    <t>[   15.866708] (!!) init: waitpid returned pid 1143, status = 0000000b</t>
-  </si>
-  <si>
-    <t>[   15.874518] (!!) init: process 'voicerecog', pid 1143 exited</t>
-  </si>
-  <si>
-    <t>[   15.880819] (!!) init: process 'voicerecog' killing any children in process group</t>
-  </si>
-  <si>
-    <t>[   16.811603] (!!) init: processing action 0xe14e8 (property:appmgr.lazystart=trigger_home_started)</t>
-  </si>
-  <si>
-    <t>[   16.922847] [TC:15532][TT:8] [SystemService] PLCaution confirmed [20]</t>
-  </si>
-  <si>
-    <t>[   16.947089] [TC:15557][TT:15] [SystemService] First App ready [20]</t>
-  </si>
-  <si>
-    <t>[   16.967640] [TC:15577][TT:0] [SystemService] start lazy service [naviserver]</t>
-  </si>
-  <si>
-    <t>[   17.069925] (!!) init: waitpid returned pid 92, status = 00000000</t>
-  </si>
-  <si>
-    <t>[   17.077839] (!!) init: process 'Opening', pid 92 exited</t>
-  </si>
-  <si>
-    <t>[   18.101731] (!!) init: starting 'voicerecog'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 对应log: hub 1-0:1.0: 1 port detected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,6 +2585,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2171,11 +2621,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2490,10 +2949,10 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -2567,10 +3026,10 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -2599,31 +3058,31 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AA22"/>
+  <dimension ref="B2:AA76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -2648,107 +3107,408 @@
   <sheetData>
     <row r="2" spans="2:27">
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>25</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="2:27">
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:27">
       <c r="D4" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="D5" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="D6" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="E7" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="D8" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="E9" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="F10" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="D11" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="E12" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="E14" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="1" t="s">
+    </row>
+    <row r="16" spans="2:27">
+      <c r="D16" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="E17" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="B19" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="C20" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="C21" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="D22" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="E23" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="D24" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="C25" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="D26" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="C27" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
+      <c r="D28" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="C29" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="D30" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="C31" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
+      <c r="D32" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27">
+      <c r="C33" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27">
+      <c r="D34" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27">
+      <c r="B36" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27">
+      <c r="C37" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27">
+      <c r="D38" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27">
+      <c r="D39" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27">
+      <c r="D40" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27">
+      <c r="E41" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27">
+      <c r="F42" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27">
+      <c r="F43" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27">
+      <c r="B45" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27">
+      <c r="C46" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27">
+      <c r="C47" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27">
+      <c r="D48" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27">
+      <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="1" t="s">
+      <c r="AA50" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27">
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27">
+      <c r="D52" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27">
+      <c r="D53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27">
+      <c r="F54" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27">
-      <c r="D10" s="1" t="s">
+    <row r="55" spans="2:27">
+      <c r="G55" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="F11" s="1" t="s">
+    <row r="56" spans="2:27">
+      <c r="H56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27">
+      <c r="G57" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
-      <c r="H13" s="1" t="s">
+    <row r="58" spans="2:27">
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27">
+      <c r="E59" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27">
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27">
+      <c r="B62" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27">
+      <c r="C63" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27">
+      <c r="D64" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="D15" s="1" t="s">
+    <row r="68" spans="2:7">
+      <c r="C68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+    <row r="69" spans="2:7">
+      <c r="D69" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="C19" s="1" t="s">
+    <row r="70" spans="2:7">
+      <c r="E70" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="F22" s="1" t="s">
-        <v>43</v>
+    <row r="71" spans="2:7">
+      <c r="F71" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="F72" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="F73" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="F74" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="G75" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="G76" s="1" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -2762,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="BH616" sqref="BH616"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -2773,3182 +3533,3182 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="1" t="s">
-        <v>183</v>
+      <c r="B134" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="1" t="s">
-        <v>184</v>
+      <c r="B135" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="1" t="s">
-        <v>185</v>
+      <c r="B136" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="1" t="s">
-        <v>186</v>
+      <c r="B137" s="3" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="1" t="s">
-        <v>187</v>
+      <c r="B138" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="1" t="s">
-        <v>252</v>
+      <c r="B203" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="1" t="s">
-        <v>253</v>
+      <c r="B204" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="1" t="s">
-        <v>254</v>
+      <c r="B205" s="2" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="1" t="s">
-        <v>255</v>
+      <c r="B206" s="2" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="1" t="s">
-        <v>256</v>
+      <c r="B207" s="2" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="1" t="s">
-        <v>257</v>
+      <c r="B208" s="2" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="1" t="s">
-        <v>258</v>
+      <c r="B209" s="2" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="1" t="s">
-        <v>259</v>
+      <c r="B210" s="2" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="1" t="s">
-        <v>260</v>
+      <c r="B211" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="1" t="s">
-        <v>261</v>
+      <c r="B212" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="1" t="s">
-        <v>262</v>
+      <c r="B213" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="1" t="s">
-        <v>263</v>
+      <c r="B214" s="2" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="1" t="s">
-        <v>264</v>
+      <c r="B215" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="1" t="s">
-        <v>265</v>
+      <c r="B216" s="2" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="1" t="s">
-        <v>266</v>
+      <c r="B217" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="1" t="s">
-        <v>267</v>
+      <c r="B218" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="1" t="s">
-        <v>268</v>
+      <c r="B219" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="1" t="s">
-        <v>269</v>
+      <c r="B220" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="1" t="s">
-        <v>270</v>
+      <c r="B221" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" s="1" t="s">
-        <v>271</v>
+      <c r="B222" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="249" spans="2:2">
-      <c r="B249" s="1" t="s">
-        <v>298</v>
+      <c r="B249" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="2:2">
-      <c r="B250" s="1" t="s">
-        <v>299</v>
+      <c r="B250" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="1" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="1" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="1" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="1" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="1" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="1" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="1" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="1" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="1" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="1" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" s="1" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" s="1" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="1" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" s="1" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" s="1" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" s="1" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="294" spans="2:2">
-      <c r="B294" s="1" t="s">
-        <v>343</v>
+      <c r="B294" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="1" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" s="1" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" s="1" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="1" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" s="1" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="1" t="s">
-        <v>360</v>
+      <c r="B311" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="1" t="s">
-        <v>361</v>
+      <c r="B312" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" s="1" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" s="1" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="1" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="1" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="1" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="1" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="320" spans="2:2">
       <c r="B320" s="1" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="1" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" s="1" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" s="1" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" s="1" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" s="1" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" s="1" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" s="1" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" s="1" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="337" spans="2:2">
       <c r="B337" s="1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="338" spans="2:2">
       <c r="B338" s="1" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" s="1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" s="1" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" s="1" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="342" spans="2:2">
       <c r="B342" s="1" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="1" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" s="1" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="1" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" s="1" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="1" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="1" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="1" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="1" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" s="1" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" s="1" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="354" spans="2:2">
       <c r="B354" s="1" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="355" spans="2:2">
       <c r="B355" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="356" spans="2:2">
       <c r="B356" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="360" spans="2:2">
       <c r="B360" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" s="1" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="362" spans="2:2">
       <c r="B362" s="1" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="363" spans="2:2">
       <c r="B363" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="364" spans="2:2">
       <c r="B364" s="1" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="366" spans="2:2">
       <c r="B366" s="1" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="368" spans="2:2">
       <c r="B368" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="370" spans="2:2">
       <c r="B370" s="1" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="372" spans="2:2">
       <c r="B372" s="1" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" s="1" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" s="1" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" s="1" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="376" spans="2:2">
       <c r="B376" s="1" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="377" spans="2:2">
       <c r="B377" s="1" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="378" spans="2:2">
       <c r="B378" s="1" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="379" spans="2:2">
       <c r="B379" s="1" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" s="1" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" s="1" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="382" spans="2:2">
       <c r="B382" s="1" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" s="1" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="384" spans="2:2">
       <c r="B384" s="1" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" s="1" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="386" spans="2:2">
       <c r="B386" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" s="1" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="388" spans="2:2">
       <c r="B388" s="1" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="389" spans="2:2">
       <c r="B389" s="1" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="390" spans="2:2">
       <c r="B390" s="1" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" s="1" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="392" spans="2:2">
       <c r="B392" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" s="1" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="394" spans="2:2">
       <c r="B394" s="1" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" s="1" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="396" spans="2:2">
       <c r="B396" s="1" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
     </row>
     <row r="397" spans="2:2">
       <c r="B397" s="1" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="398" spans="2:2">
       <c r="B398" s="1" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="399" spans="2:2">
       <c r="B399" s="1" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="400" spans="2:2">
       <c r="B400" s="1" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="401" spans="2:2">
       <c r="B401" s="1" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="402" spans="2:2">
       <c r="B402" s="1" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" s="1" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="404" spans="2:2">
       <c r="B404" s="1" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" s="1" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="406" spans="2:2">
       <c r="B406" s="1" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" s="1" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="408" spans="2:2">
       <c r="B408" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" s="1" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="410" spans="2:2">
       <c r="B410" s="1" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="412" spans="2:2">
       <c r="B412" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="413" spans="2:2">
       <c r="B413" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="414" spans="2:2">
       <c r="B414" s="1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" s="1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="416" spans="2:2">
       <c r="B416" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="417" spans="2:2">
       <c r="B417" s="1" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="418" spans="2:2">
       <c r="B418" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="419" spans="2:2">
       <c r="B419" s="1" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="420" spans="2:2">
       <c r="B420" s="1" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" s="1" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="422" spans="2:2">
       <c r="B422" s="1" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="423" spans="2:2">
       <c r="B423" s="1" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="424" spans="2:2">
       <c r="B424" s="1" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
     </row>
     <row r="425" spans="2:2">
       <c r="B425" s="1" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="426" spans="2:2">
       <c r="B426" s="1" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" s="1" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="428" spans="2:2">
       <c r="B428" s="1" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" s="1" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="430" spans="2:2">
       <c r="B430" s="1" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="431" spans="2:2">
       <c r="B431" s="1" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="432" spans="2:2">
       <c r="B432" s="1" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" s="1" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="434" spans="2:2">
       <c r="B434" s="1" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="435" spans="2:2">
       <c r="B435" s="1" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="436" spans="2:2">
       <c r="B436" s="1" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" s="1" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="438" spans="2:2">
       <c r="B438" s="1" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" s="1" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
     </row>
     <row r="440" spans="2:2">
       <c r="B440" s="1" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" s="1" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="442" spans="2:2">
       <c r="B442" s="1" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" s="1" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
     </row>
     <row r="444" spans="2:2">
       <c r="B444" s="1" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" s="1" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446" spans="2:2">
       <c r="B446" s="1" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" s="1" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="448" spans="2:2">
       <c r="B448" s="1" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" s="1" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450" spans="2:2">
       <c r="B450" s="1" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" s="1" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="452" spans="2:2">
       <c r="B452" s="1" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" s="1" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="454" spans="2:2">
       <c r="B454" s="1" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="455" spans="2:2">
       <c r="B455" s="1" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" s="1" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="457" spans="2:2">
       <c r="B457" s="1" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="458" spans="2:2">
       <c r="B458" s="1" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="459" spans="2:2">
       <c r="B459" s="1" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="460" spans="2:2">
       <c r="B460" s="1" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="461" spans="2:2">
       <c r="B461" s="1" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="462" spans="2:2">
       <c r="B462" s="1" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="463" spans="2:2">
       <c r="B463" s="1" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="464" spans="2:2">
       <c r="B464" s="1" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="465" spans="2:2">
       <c r="B465" s="1" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="466" spans="2:2">
       <c r="B466" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="467" spans="2:2">
       <c r="B467" s="1" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="468" spans="2:2">
       <c r="B468" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" s="1" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="470" spans="2:2">
       <c r="B470" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="471" spans="2:2">
       <c r="B471" s="1" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="472" spans="2:2">
       <c r="B472" s="1" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="473" spans="2:2">
       <c r="B473" s="1" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="474" spans="2:2">
       <c r="B474" s="1" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" s="1" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
     </row>
     <row r="476" spans="2:2">
       <c r="B476" s="1" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" s="1" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="478" spans="2:2">
       <c r="B478" s="1" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" s="1" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="480" spans="2:2">
       <c r="B480" s="1" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" s="1" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="482" spans="2:2">
       <c r="B482" s="1" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" s="1" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="484" spans="2:2">
       <c r="B484" s="1" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" s="1" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
     <row r="486" spans="2:2">
       <c r="B486" s="1" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="487" spans="2:2">
       <c r="B487" s="1" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="488" spans="2:2">
       <c r="B488" s="1" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="489" spans="2:2">
       <c r="B489" s="1" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="490" spans="2:2">
       <c r="B490" s="1" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="491" spans="2:2">
       <c r="B491" s="1" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="492" spans="2:2">
       <c r="B492" s="1" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
     </row>
     <row r="493" spans="2:2">
       <c r="B493" s="1" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="494" spans="2:2">
       <c r="B494" s="1" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="495" spans="2:2">
       <c r="B495" s="1" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="496" spans="2:2">
       <c r="B496" s="1" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="497" spans="2:2">
       <c r="B497" s="1" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="498" spans="2:2">
       <c r="B498" s="1" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="499" spans="2:2">
       <c r="B499" s="1" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="500" spans="2:2">
       <c r="B500" s="1" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="501" spans="2:2">
       <c r="B501" s="1" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="503" spans="2:2">
       <c r="B503" s="1" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="504" spans="2:2">
       <c r="B504" s="1" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="505" spans="2:2">
       <c r="B505" s="1" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" s="1" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="507" spans="2:2">
       <c r="B507" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="508" spans="2:2">
       <c r="B508" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="509" spans="2:2">
       <c r="B509" s="1" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="510" spans="2:2">
       <c r="B510" s="1" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="511" spans="2:2">
       <c r="B511" s="1" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="512" spans="2:2">
       <c r="B512" s="1" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="513" spans="2:2">
       <c r="B513" s="1" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="514" spans="2:2">
       <c r="B514" s="1" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="515" spans="2:2">
       <c r="B515" s="1" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="516" spans="2:2">
       <c r="B516" s="1" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" s="1" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="518" spans="2:2">
       <c r="B518" s="1" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="519" spans="2:2">
       <c r="B519" s="1" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="520" spans="2:2">
       <c r="B520" s="1" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" s="1" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="522" spans="2:2">
       <c r="B522" s="1" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="523" spans="2:2">
       <c r="B523" s="1" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="524" spans="2:2">
       <c r="B524" s="1" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" s="1" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="526" spans="2:2">
       <c r="B526" s="1" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" s="1" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="528" spans="2:2">
       <c r="B528" s="1" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" s="1" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="530" spans="2:2">
-      <c r="B530" s="1" t="s">
-        <v>577</v>
+      <c r="B530" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" s="1" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
     </row>
     <row r="532" spans="2:2">
       <c r="B532" s="1" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" s="1" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="534" spans="2:2">
       <c r="B534" s="1" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" s="1" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="536" spans="2:2">
       <c r="B536" s="1" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" s="1" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="538" spans="2:2">
       <c r="B538" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" s="1" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
     </row>
     <row r="540" spans="2:2">
       <c r="B540" s="1" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" s="1" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
     </row>
     <row r="542" spans="2:2">
       <c r="B542" s="1" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" s="1" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
     </row>
     <row r="544" spans="2:2">
       <c r="B544" s="1" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" s="1" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
     </row>
     <row r="546" spans="2:2">
       <c r="B546" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" s="1" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="2:2">
       <c r="B548" s="1" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" s="1" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="550" spans="2:2">
       <c r="B550" s="1" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" s="1" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="552" spans="2:2">
       <c r="B552" s="1" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" s="1" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
     </row>
     <row r="554" spans="2:2">
       <c r="B554" s="1" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="2:2">
       <c r="B556" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="558" spans="2:2">
       <c r="B558" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" s="1" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="560" spans="2:2">
       <c r="B560" s="1" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" s="1" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" s="1" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="1" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="1" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" s="1" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="1" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" s="1" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" s="1" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="1" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" s="1" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" s="1" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" s="1" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" s="1" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" s="1" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" s="1" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" s="1" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
     </row>
     <row r="577" spans="2:2">
       <c r="B577" s="1" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
     </row>
     <row r="578" spans="2:2">
       <c r="B578" s="1" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" s="1" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="580" spans="2:2">
       <c r="B580" s="1" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" s="1" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
     </row>
     <row r="582" spans="2:2">
       <c r="B582" s="1" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" s="1" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="584" spans="2:2">
       <c r="B584" s="1" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
     </row>
     <row r="585" spans="2:2">
       <c r="B585" s="1" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
     </row>
     <row r="586" spans="2:2">
       <c r="B586" s="1" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
     </row>
     <row r="587" spans="2:2">
       <c r="B587" s="1" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="588" spans="2:2">
       <c r="B588" s="1" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="589" spans="2:2">
       <c r="B589" s="1" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
     </row>
     <row r="590" spans="2:2">
       <c r="B590" s="1" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="591" spans="2:2">
       <c r="B591" s="1" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
     </row>
     <row r="592" spans="2:2">
       <c r="B592" s="1" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="593" spans="2:2">
       <c r="B593" s="1" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
     </row>
     <row r="594" spans="2:2">
       <c r="B594" s="1" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="595" spans="2:2">
       <c r="B595" s="1" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="596" spans="2:2">
       <c r="B596" s="1" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="597" spans="2:2">
       <c r="B597" s="1" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="598" spans="2:2">
       <c r="B598" s="1" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="599" spans="2:2">
       <c r="B599" s="1" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
     </row>
     <row r="600" spans="2:2">
       <c r="B600" s="1" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="601" spans="2:2">
       <c r="B601" s="1" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
     </row>
     <row r="602" spans="2:2">
       <c r="B602" s="1" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="603" spans="2:2">
       <c r="B603" s="1" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="604" spans="2:2">
       <c r="B604" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="605" spans="2:2">
       <c r="B605" s="1" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="606" spans="2:2">
       <c r="B606" s="1" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="607" spans="2:2">
       <c r="B607" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="608" spans="2:2">
       <c r="B608" s="1" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="609" spans="2:2">
       <c r="B609" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="610" spans="2:2">
       <c r="B610" s="1" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="611" spans="2:2">
       <c r="B611" s="1" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="612" spans="2:2">
       <c r="B612" s="1" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="613" spans="2:2">
       <c r="B613" s="1" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
     </row>
     <row r="614" spans="2:2">
       <c r="B614" s="1" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="615" spans="2:2">
       <c r="B615" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
     </row>
     <row r="616" spans="2:2">
       <c r="B616" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
     </row>
     <row r="617" spans="2:2">
       <c r="B617" s="1" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
     </row>
     <row r="618" spans="2:2">
       <c r="B618" s="1" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="619" spans="2:2">
       <c r="B619" s="1" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="620" spans="2:2">
       <c r="B620" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="621" spans="2:2">
       <c r="B621" s="1" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="622" spans="2:2">
       <c r="B622" s="1" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
     </row>
     <row r="623" spans="2:2">
       <c r="B623" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
     </row>
     <row r="624" spans="2:2">
       <c r="B624" s="1" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
     </row>
     <row r="625" spans="2:2">
       <c r="B625" s="1" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="626" spans="2:2">
       <c r="B626" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="627" spans="2:2">
       <c r="B627" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
     </row>
     <row r="628" spans="2:2">
       <c r="B628" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="629" spans="2:2">
       <c r="B629" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="630" spans="2:2">
       <c r="B630" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
     </row>
     <row r="631" spans="2:2">
       <c r="B631" s="1" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="632" spans="2:2">
       <c r="B632" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="633" spans="2:2">
       <c r="B633" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
     </row>
     <row r="634" spans="2:2">
       <c r="B634" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="635" spans="2:2">
       <c r="B635" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
     </row>
     <row r="636" spans="2:2">
       <c r="B636" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="637" spans="2:2">
       <c r="B637" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
     </row>
     <row r="638" spans="2:2">
       <c r="B638" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="639" spans="2:2">
       <c r="B639" s="1" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
     </row>
     <row r="640" spans="2:2">
       <c r="B640" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="641" spans="2:2">
       <c r="B641" s="1" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
     </row>
     <row r="642" spans="2:2">
       <c r="B642" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="643" spans="2:2">
       <c r="B643" s="1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -5956,4 +6716,270 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:R47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>